--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{B5478E54-A6F5-EE42-B495-B0AEA489F5E0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21160" windowWidth="25600" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21160" windowWidth="25600" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="497">
   <si>
     <t>description</t>
   </si>
@@ -1544,6 +1544,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1563,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1729,8 +1741,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1902,8 +2015,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2223,6 +2489,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2230,7 +2778,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2359,52 +2907,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2729,9 +3325,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3501,7 +4097,7 @@
         <v>189</v>
       </c>
       <c r="AC13" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14">
@@ -3536,7 +4132,7 @@
         <v>190</v>
       </c>
       <c r="AC14" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15">
@@ -3568,7 +4164,7 @@
         <v>191</v>
       </c>
       <c r="AC15" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16">
@@ -3597,7 +4193,7 @@
         <v>192</v>
       </c>
       <c r="AC16" t="s">
-        <v>232</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17">
@@ -3620,7 +4216,7 @@
         <v>464</v>
       </c>
       <c r="AC17" t="s">
-        <v>233</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18">
@@ -3640,7 +4236,7 @@
         <v>104</v>
       </c>
       <c r="AC18" t="s">
-        <v>234</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19">
@@ -3659,6 +4255,9 @@
       <c r="X19" t="s">
         <v>105</v>
       </c>
+      <c r="AC19" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3676,6 +4275,9 @@
       <c r="X20" t="s">
         <v>106</v>
       </c>
+      <c r="AC20" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3693,6 +4295,9 @@
       <c r="X21" t="s">
         <v>484</v>
       </c>
+      <c r="AC21" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4242,7 +4847,7 @@
         <v>267</v>
       </c>
       <c r="X79" t="s">
-        <v>143</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80">
@@ -4250,7 +4855,7 @@
         <v>278</v>
       </c>
       <c r="X80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
@@ -4258,7 +4863,7 @@
         <v>284</v>
       </c>
       <c r="X81" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -4266,7 +4871,7 @@
         <v>273</v>
       </c>
       <c r="X82" t="s">
-        <v>486</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
@@ -4274,7 +4879,7 @@
         <v>268</v>
       </c>
       <c r="X83" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84">
@@ -4282,7 +4887,7 @@
         <v>285</v>
       </c>
       <c r="X84" t="s">
-        <v>451</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -4290,7 +4895,7 @@
         <v>269</v>
       </c>
       <c r="X85" t="s">
-        <v>198</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86">
@@ -4298,7 +4903,7 @@
         <v>270</v>
       </c>
       <c r="X86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -4306,7 +4911,7 @@
         <v>302</v>
       </c>
       <c r="X87" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
@@ -4314,7 +4919,7 @@
         <v>308</v>
       </c>
       <c r="X88" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89">
@@ -4322,7 +4927,7 @@
         <v>292</v>
       </c>
       <c r="X89" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90">
@@ -4330,7 +4935,7 @@
         <v>337</v>
       </c>
       <c r="X90" t="s">
-        <v>439</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -4338,7 +4943,7 @@
         <v>274</v>
       </c>
       <c r="X91" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92">
@@ -4346,156 +4951,161 @@
         <v>275</v>
       </c>
       <c r="X92" t="s">
-        <v>201</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>380</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>147</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>441</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>160</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>167</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -36,7 +36,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="500">
   <si>
     <t>description</t>
   </si>
@@ -1556,6 +1556,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1572,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1842,8 +1851,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2168,8 +2379,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -2771,6 +3288,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2778,7 +3859,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2955,52 +4036,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3325,7 +4502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4152,7 +5329,7 @@
         <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>94</v>
+        <v>497</v>
       </c>
       <c r="Q15" t="s">
         <v>248</v>
@@ -4183,6 +5360,9 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
+      <c r="P16" t="s">
+        <v>498</v>
+      </c>
       <c r="Q16" t="s">
         <v>249</v>
       </c>
@@ -4210,7 +5390,7 @@
         <v>82</v>
       </c>
       <c r="X17" t="s">
-        <v>103</v>
+        <v>499</v>
       </c>
       <c r="AA17" t="s">
         <v>464</v>
@@ -4233,7 +5413,7 @@
         <v>377</v>
       </c>
       <c r="X18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC18" t="s">
         <v>496</v>
@@ -4253,7 +5433,7 @@
         <v>467</v>
       </c>
       <c r="X19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC19" t="s">
         <v>232</v>
@@ -4273,7 +5453,7 @@
         <v>43</v>
       </c>
       <c r="X20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC20" t="s">
         <v>233</v>
@@ -4293,7 +5473,7 @@
         <v>389</v>
       </c>
       <c r="X21" t="s">
-        <v>484</v>
+        <v>106</v>
       </c>
       <c r="AC21" t="s">
         <v>234</v>
@@ -4313,7 +5493,7 @@
         <v>83</v>
       </c>
       <c r="X22" t="s">
-        <v>107</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23">
@@ -4330,7 +5510,7 @@
         <v>431</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -4347,7 +5527,7 @@
         <v>44</v>
       </c>
       <c r="X24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -4364,7 +5544,7 @@
         <v>45</v>
       </c>
       <c r="X25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -4378,7 +5558,7 @@
         <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -4392,7 +5572,7 @@
         <v>263</v>
       </c>
       <c r="X27" t="s">
-        <v>324</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -4406,7 +5586,7 @@
         <v>280</v>
       </c>
       <c r="X28" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29">
@@ -4420,7 +5600,7 @@
         <v>281</v>
       </c>
       <c r="X29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -4431,7 +5611,7 @@
         <v>213</v>
       </c>
       <c r="X30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -4442,7 +5622,7 @@
         <v>272</v>
       </c>
       <c r="X31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -4453,7 +5633,7 @@
         <v>282</v>
       </c>
       <c r="X32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -4464,7 +5644,7 @@
         <v>257</v>
       </c>
       <c r="X33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -4475,7 +5655,7 @@
         <v>327</v>
       </c>
       <c r="X34" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -4486,7 +5666,7 @@
         <v>304</v>
       </c>
       <c r="X35" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36">
@@ -4497,7 +5677,7 @@
         <v>258</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -4508,7 +5688,7 @@
         <v>305</v>
       </c>
       <c r="X37" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
@@ -4519,7 +5699,7 @@
         <v>264</v>
       </c>
       <c r="X38" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39">
@@ -4527,7 +5707,7 @@
         <v>76</v>
       </c>
       <c r="X39" t="s">
-        <v>119</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40">
@@ -4535,7 +5715,7 @@
         <v>209</v>
       </c>
       <c r="X40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -4543,7 +5723,7 @@
         <v>286</v>
       </c>
       <c r="X41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -4551,7 +5731,7 @@
         <v>297</v>
       </c>
       <c r="X42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -4559,7 +5739,7 @@
         <v>298</v>
       </c>
       <c r="X43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -4567,7 +5747,7 @@
         <v>340</v>
       </c>
       <c r="X44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -4575,7 +5755,7 @@
         <v>339</v>
       </c>
       <c r="X45" t="s">
-        <v>436</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -4583,7 +5763,7 @@
         <v>208</v>
       </c>
       <c r="X46" t="s">
-        <v>210</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47">
@@ -4591,7 +5771,7 @@
         <v>317</v>
       </c>
       <c r="X47" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48">
@@ -4599,7 +5779,7 @@
         <v>336</v>
       </c>
       <c r="X48" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
@@ -4607,7 +5787,7 @@
         <v>365</v>
       </c>
       <c r="X49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -4615,7 +5795,7 @@
         <v>299</v>
       </c>
       <c r="X50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -4623,7 +5803,7 @@
         <v>353</v>
       </c>
       <c r="X51" t="s">
-        <v>485</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -4631,7 +5811,7 @@
         <v>328</v>
       </c>
       <c r="X52" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53">
@@ -4639,7 +5819,7 @@
         <v>265</v>
       </c>
       <c r="X53" t="s">
-        <v>128</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +5827,7 @@
         <v>289</v>
       </c>
       <c r="X54" t="s">
-        <v>343</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
@@ -4655,7 +5835,7 @@
         <v>290</v>
       </c>
       <c r="X55" t="s">
-        <v>462</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56">
@@ -4663,7 +5843,7 @@
         <v>291</v>
       </c>
       <c r="X56" t="s">
-        <v>129</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57">
@@ -4671,7 +5851,7 @@
         <v>300</v>
       </c>
       <c r="X57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
@@ -4679,7 +5859,7 @@
         <v>309</v>
       </c>
       <c r="X58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -4687,7 +5867,7 @@
         <v>334</v>
       </c>
       <c r="X59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
@@ -4695,7 +5875,7 @@
         <v>306</v>
       </c>
       <c r="X60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -4703,7 +5883,7 @@
         <v>307</v>
       </c>
       <c r="X61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -4711,7 +5891,7 @@
         <v>366</v>
       </c>
       <c r="X62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -4719,7 +5899,7 @@
         <v>367</v>
       </c>
       <c r="X63" t="s">
-        <v>437</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -4727,7 +5907,7 @@
         <v>342</v>
       </c>
       <c r="X64" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65">
@@ -4735,7 +5915,7 @@
         <v>310</v>
       </c>
       <c r="X65" t="s">
-        <v>211</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66">
@@ -4743,7 +5923,7 @@
         <v>266</v>
       </c>
       <c r="X66" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67">
@@ -4751,7 +5931,7 @@
         <v>350</v>
       </c>
       <c r="X67" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68">
@@ -4759,7 +5939,7 @@
         <v>311</v>
       </c>
       <c r="X68" t="s">
-        <v>136</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69">
@@ -4767,7 +5947,7 @@
         <v>407</v>
       </c>
       <c r="X69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -4775,7 +5955,7 @@
         <v>301</v>
       </c>
       <c r="X70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
@@ -4783,7 +5963,7 @@
         <v>408</v>
       </c>
       <c r="X71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -4791,7 +5971,7 @@
         <v>259</v>
       </c>
       <c r="X72" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -4799,7 +5979,7 @@
         <v>341</v>
       </c>
       <c r="X73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74">
@@ -4807,7 +5987,7 @@
         <v>277</v>
       </c>
       <c r="X74" t="s">
-        <v>450</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
@@ -4815,7 +5995,7 @@
         <v>283</v>
       </c>
       <c r="X75" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76">
@@ -4823,7 +6003,7 @@
         <v>288</v>
       </c>
       <c r="X76" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77">
@@ -4831,7 +6011,7 @@
         <v>426</v>
       </c>
       <c r="X77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -4839,7 +6019,7 @@
         <v>329</v>
       </c>
       <c r="X78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -4847,7 +6027,7 @@
         <v>267</v>
       </c>
       <c r="X79" t="s">
-        <v>493</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
@@ -4855,7 +6035,7 @@
         <v>278</v>
       </c>
       <c r="X80" t="s">
-        <v>143</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81">
@@ -4863,7 +6043,7 @@
         <v>284</v>
       </c>
       <c r="X81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
@@ -4871,7 +6051,7 @@
         <v>273</v>
       </c>
       <c r="X82" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
@@ -4879,7 +6059,7 @@
         <v>268</v>
       </c>
       <c r="X83" t="s">
-        <v>486</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84">
@@ -4887,7 +6067,7 @@
         <v>285</v>
       </c>
       <c r="X84" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85">
@@ -4895,7 +6075,7 @@
         <v>269</v>
       </c>
       <c r="X85" t="s">
-        <v>451</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -4903,7 +6083,7 @@
         <v>270</v>
       </c>
       <c r="X86" t="s">
-        <v>198</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87">
@@ -4911,7 +6091,7 @@
         <v>302</v>
       </c>
       <c r="X87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -4919,7 +6099,7 @@
         <v>308</v>
       </c>
       <c r="X88" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -4927,7 +6107,7 @@
         <v>292</v>
       </c>
       <c r="X89" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90">
@@ -4935,7 +6115,7 @@
         <v>337</v>
       </c>
       <c r="X90" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91">
@@ -4943,7 +6123,7 @@
         <v>274</v>
       </c>
       <c r="X91" t="s">
-        <v>439</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -4951,161 +6131,166 @@
         <v>275</v>
       </c>
       <c r="X92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>201</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>380</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>147</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>441</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>160</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>167</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{933919CE-BB1A-274A-807A-307A76E6EB0A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21160" windowWidth="38400" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21160" windowWidth="38400" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1659,6 +1659,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1672,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1844,8 +1850,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2017,8 +2124,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2338,6 +2598,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2345,7 +2887,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2478,52 +3020,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2880,7 +3470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4029,7 +4619,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>256</v>
+        <v>529</v>
       </c>
       <c r="X33" t="s">
         <v>115</v>
@@ -4040,7 +4630,7 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="X34" t="s">
         <v>116</v>
@@ -4051,7 +4641,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="X35" t="s">
         <v>206</v>
@@ -4062,7 +4652,7 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="X36" t="s">
         <v>117</v>
@@ -4073,7 +4663,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="X37" t="s">
         <v>334</v>
@@ -4084,7 +4674,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="X38" t="s">
         <v>434</v>
@@ -4092,7 +4682,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="X39" t="s">
         <v>389</v>
@@ -4100,7 +4690,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s">
         <v>118</v>
@@ -4108,7 +4698,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="X41" t="s">
         <v>119</v>
@@ -4116,7 +4706,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="X42" t="s">
         <v>120</v>
@@ -4124,7 +4714,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X43" t="s">
         <v>121</v>
@@ -4132,7 +4722,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="X44" t="s">
         <v>122</v>
@@ -4140,7 +4730,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="X45" t="s">
         <v>123</v>
@@ -4148,7 +4738,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="X46" t="s">
         <v>435</v>
@@ -4156,7 +4746,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="X47" t="s">
         <v>209</v>
@@ -4164,7 +4754,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="X48" t="s">
         <v>75</v>
@@ -4172,7 +4762,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="X49" t="s">
         <v>124</v>
@@ -4180,7 +4770,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="X50" t="s">
         <v>125</v>
@@ -4188,7 +4778,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="X51" t="s">
         <v>126</v>
@@ -4196,7 +4786,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="X52" t="s">
         <v>484</v>
@@ -4204,7 +4794,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="X53" t="s">
         <v>460</v>
@@ -4212,7 +4802,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="X54" t="s">
         <v>127</v>
@@ -4220,7 +4810,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="X55" t="s">
         <v>342</v>
@@ -4228,7 +4818,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="X56" t="s">
         <v>461</v>
@@ -4236,7 +4826,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="X57" t="s">
         <v>128</v>
@@ -4244,7 +4834,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="X58" t="s">
         <v>129</v>
@@ -4252,7 +4842,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="X59" t="s">
         <v>130</v>
@@ -4260,7 +4850,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="X60" t="s">
         <v>131</v>
@@ -4268,7 +4858,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X61" t="s">
         <v>132</v>
@@ -4276,7 +4866,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="X62" t="s">
         <v>133</v>
@@ -4284,7 +4874,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="X63" t="s">
         <v>134</v>
@@ -4292,7 +4882,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="X64" t="s">
         <v>436</v>
@@ -4300,7 +4890,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="X65" t="s">
         <v>469</v>
@@ -4308,7 +4898,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="X66" t="s">
         <v>210</v>
@@ -4316,7 +4906,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="X67" t="s">
         <v>385</v>
@@ -4324,7 +4914,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="X68" t="s">
         <v>437</v>
@@ -4332,7 +4922,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="X69" t="s">
         <v>135</v>
@@ -4340,7 +4930,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="X70" t="s">
         <v>136</v>
@@ -4348,7 +4938,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="X71" t="s">
         <v>137</v>
@@ -4356,7 +4946,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>258</v>
+        <v>407</v>
       </c>
       <c r="X72" t="s">
         <v>138</v>
@@ -4364,7 +4954,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="X73" t="s">
         <v>193</v>
@@ -4372,7 +4962,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>276</v>
+        <v>530</v>
       </c>
       <c r="X74" t="s">
         <v>194</v>
@@ -4380,7 +4970,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="X75" t="s">
         <v>449</v>
@@ -4388,7 +4978,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="X76" t="s">
         <v>462</v>
@@ -4396,7 +4986,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>425</v>
+        <v>282</v>
       </c>
       <c r="X77" t="s">
         <v>139</v>
@@ -4404,7 +4994,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="X78" t="s">
         <v>140</v>
@@ -4412,7 +5002,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="X79" t="s">
         <v>141</v>
@@ -4420,7 +5010,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="X80" t="s">
         <v>492</v>
@@ -4428,7 +5018,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="X81" t="s">
         <v>142</v>
@@ -4436,7 +5026,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="X82" t="s">
         <v>143</v>
@@ -4444,7 +5034,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="X83" t="s">
         <v>195</v>
@@ -4452,7 +5042,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="X84" t="s">
         <v>485</v>
@@ -4460,7 +5050,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X85" t="s">
         <v>196</v>
@@ -4468,7 +5058,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="X86" t="s">
         <v>450</v>
@@ -4476,7 +5066,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="X87" t="s">
         <v>197</v>
@@ -4484,7 +5074,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="X88" t="s">
         <v>198</v>
@@ -4492,7 +5082,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="X89" t="s">
         <v>211</v>
@@ -4500,7 +5090,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="X90" t="s">
         <v>144</v>
@@ -4508,7 +5098,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="X91" t="s">
         <v>199</v>
@@ -4516,18 +5106,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="X92" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>273</v>
+      </c>
       <c r="X93" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>274</v>
+      </c>
       <c r="X94" t="s">
         <v>200</v>
       </c>
@@ -4696,7 +5292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="533">
   <si>
     <t>description</t>
   </si>
@@ -1665,6 +1665,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1678,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1951,8 +1957,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2277,8 +2384,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2880,6 +3157,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2887,7 +3446,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3068,52 +3627,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3468,7 +4075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5160,126 +5767,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>145</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>146</v>
+        <v>532</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>440</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>160</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -32,26 +32,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="540">
   <si>
     <t>description</t>
   </si>
@@ -1671,6 +1672,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1700,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2058,8 +2080,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="88">
+  <fills count="118">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2554,8 +2677,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3439,6 +3732,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3446,7 +4021,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3675,52 +4250,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="99" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="111" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="111" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4075,7 +4698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4127,51 +4750,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>533</v>
+      </c>
+      <c r="O1" t="s">
         <v>473</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>192</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>235</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>392</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>408</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>409</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>353</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>393</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>410</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4216,51 +4842,54 @@
         <v>431</v>
       </c>
       <c r="N2" t="s">
+        <v>534</v>
+      </c>
+      <c r="O2" t="s">
         <v>480</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>413</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>426</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>249</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>213</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>394</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>415</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>416</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>377</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>403</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>167</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4305,45 +4934,48 @@
         <v>84</v>
       </c>
       <c r="N3" t="s">
+        <v>535</v>
+      </c>
+      <c r="O3" t="s">
         <v>481</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>427</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>236</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>214</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>395</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>417</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>378</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>404</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>168</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>360</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>180</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4385,45 +5017,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>536</v>
+      </c>
+      <c r="O4" t="s">
         <v>482</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>237</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>215</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>396</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>418</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>354</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>405</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>350</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>169</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>180</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>420</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4458,40 +5093,43 @@
       <c r="M5" t="s">
         <v>85</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>238</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>216</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>397</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>419</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>355</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>351</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>170</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>181</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>421</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4523,37 +5161,40 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>239</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>387</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>398</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>357</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>441</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>176</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>182</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>422</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4579,37 +5220,40 @@
       <c r="M7" t="s">
         <v>311</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>240</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>414</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>399</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>356</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>97</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>442</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>177</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>183</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>423</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4635,34 +5279,34 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>89</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>241</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>400</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>358</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>98</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>171</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>178</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>184</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>424</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4688,25 +5332,25 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>242</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>401</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>359</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4729,22 +5373,22 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>433</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>243</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>402</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4767,19 +5411,19 @@
       <c r="M11" t="s">
         <v>467</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4802,19 +5446,19 @@
       <c r="M12" t="s">
         <v>432</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4837,25 +5481,25 @@
       <c r="M13" t="s">
         <v>468</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>92</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -4872,25 +5516,25 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>93</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>473</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>
@@ -4904,25 +5548,25 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>496</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
         <v>381</v>
@@ -4936,25 +5580,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>497</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>382</v>
@@ -4965,19 +5609,19 @@
       <c r="K17" t="s">
         <v>80</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>498</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>463</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
         <v>411</v>
@@ -4988,16 +5632,16 @@
       <c r="K18" t="s">
         <v>459</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>392</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>58</v>
@@ -5008,16 +5652,16 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E20" t="s">
         <v>59</v>
@@ -5028,16 +5672,16 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E21" t="s">
         <v>252</v>
@@ -5048,16 +5692,16 @@
       <c r="K21" t="s">
         <v>376</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -5068,13 +5712,13 @@
       <c r="K22" t="s">
         <v>466</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
         <v>317</v>
@@ -5085,13 +5729,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>393</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
@@ -5102,13 +5746,13 @@
       <c r="K24" t="s">
         <v>388</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>445</v>
@@ -5119,13 +5763,13 @@
       <c r="K25" t="s">
         <v>83</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>221</v>
@@ -5136,13 +5780,13 @@
       <c r="K26" t="s">
         <v>430</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>222</v>
@@ -5153,13 +5797,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>464</v>
@@ -5170,13 +5814,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>410</v>
       </c>
       <c r="E29" t="s">
         <v>465</v>
@@ -5184,18 +5828,21 @@
       <c r="G29" t="s">
         <v>280</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>223</v>
+      </c>
       <c r="E30" t="s">
         <v>412</v>
       </c>
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5206,7 +5853,7 @@
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5217,7 +5864,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5228,7 +5875,7 @@
       <c r="G33" t="s">
         <v>529</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5239,7 +5886,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5250,7 +5897,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5261,7 +5908,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5272,7 +5919,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5283,7 +5930,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5291,7 +5938,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5299,7 +5946,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5307,7 +5954,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5315,7 +5962,7 @@
       <c r="G42" t="s">
         <v>285</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5323,7 +5970,7 @@
       <c r="G43" t="s">
         <v>296</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5331,7 +5978,7 @@
       <c r="G44" t="s">
         <v>297</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5339,7 +5986,7 @@
       <c r="G45" t="s">
         <v>339</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5347,7 +5994,7 @@
       <c r="G46" t="s">
         <v>338</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5355,7 +6002,7 @@
       <c r="G47" t="s">
         <v>207</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5363,7 +6010,7 @@
       <c r="G48" t="s">
         <v>316</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5371,7 +6018,7 @@
       <c r="G49" t="s">
         <v>335</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5379,7 +6026,7 @@
       <c r="G50" t="s">
         <v>364</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5387,7 +6034,7 @@
       <c r="G51" t="s">
         <v>298</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5395,7 +6042,7 @@
       <c r="G52" t="s">
         <v>352</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5403,7 +6050,7 @@
       <c r="G53" t="s">
         <v>327</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5411,7 +6058,7 @@
       <c r="G54" t="s">
         <v>264</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5419,7 +6066,7 @@
       <c r="G55" t="s">
         <v>288</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5427,7 +6074,7 @@
       <c r="G56" t="s">
         <v>289</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5435,7 +6082,7 @@
       <c r="G57" t="s">
         <v>290</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5443,7 +6090,7 @@
       <c r="G58" t="s">
         <v>299</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5451,7 +6098,7 @@
       <c r="G59" t="s">
         <v>308</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5459,7 +6106,7 @@
       <c r="G60" t="s">
         <v>333</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5467,7 +6114,7 @@
       <c r="G61" t="s">
         <v>305</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5475,7 +6122,7 @@
       <c r="G62" t="s">
         <v>306</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5483,7 +6130,7 @@
       <c r="G63" t="s">
         <v>365</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5491,7 +6138,7 @@
       <c r="G64" t="s">
         <v>366</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5499,7 +6146,7 @@
       <c r="G65" t="s">
         <v>341</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5507,7 +6154,7 @@
       <c r="G66" t="s">
         <v>309</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5515,7 +6162,7 @@
       <c r="G67" t="s">
         <v>265</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5523,7 +6170,7 @@
       <c r="G68" t="s">
         <v>349</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5531,7 +6178,7 @@
       <c r="G69" t="s">
         <v>310</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5539,7 +6186,7 @@
       <c r="G70" t="s">
         <v>406</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5547,7 +6194,7 @@
       <c r="G71" t="s">
         <v>300</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5555,7 +6202,7 @@
       <c r="G72" t="s">
         <v>407</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5563,7 +6210,7 @@
       <c r="G73" t="s">
         <v>258</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5571,7 +6218,7 @@
       <c r="G74" t="s">
         <v>530</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5579,7 +6226,7 @@
       <c r="G75" t="s">
         <v>340</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5587,7 +6234,7 @@
       <c r="G76" t="s">
         <v>276</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5595,7 +6242,7 @@
       <c r="G77" t="s">
         <v>282</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5603,7 +6250,7 @@
       <c r="G78" t="s">
         <v>287</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5611,7 +6258,7 @@
       <c r="G79" t="s">
         <v>425</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5619,7 +6266,7 @@
       <c r="G80" t="s">
         <v>328</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5627,7 +6274,7 @@
       <c r="G81" t="s">
         <v>266</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5635,7 +6282,7 @@
       <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5643,7 +6290,7 @@
       <c r="G83" t="s">
         <v>283</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5651,7 +6298,7 @@
       <c r="G84" t="s">
         <v>272</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5659,7 +6306,7 @@
       <c r="G85" t="s">
         <v>267</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5667,7 +6314,7 @@
       <c r="G86" t="s">
         <v>284</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5675,7 +6322,7 @@
       <c r="G87" t="s">
         <v>268</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5683,7 +6330,7 @@
       <c r="G88" t="s">
         <v>269</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5691,7 +6338,7 @@
       <c r="G89" t="s">
         <v>301</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5699,7 +6346,7 @@
       <c r="G90" t="s">
         <v>307</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5707,7 +6354,7 @@
       <c r="G91" t="s">
         <v>291</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5715,7 +6362,7 @@
       <c r="G92" t="s">
         <v>336</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5723,7 +6370,7 @@
       <c r="G93" t="s">
         <v>273</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5731,172 +6378,172 @@
       <c r="G94" t="s">
         <v>274</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -52,7 +52,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="544">
   <si>
     <t>description</t>
   </si>
@@ -1693,6 +1693,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1712,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2181,8 +2193,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="118">
+  <fills count="178">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2847,8 +3061,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4014,6 +4568,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4021,7 +5139,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4298,52 +5416,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="111" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="111" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="111" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="111" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="120" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="123" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="129" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="135" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="138" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="141" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="141" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="165" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="168" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="171" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="171" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5094,7 +6308,7 @@
         <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -5162,7 +6376,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -5221,7 +6435,7 @@
         <v>311</v>
       </c>
       <c r="N7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -5279,6 +6493,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>537</v>
+      </c>
       <c r="Q8" t="s">
         <v>89</v>
       </c>
@@ -5332,6 +6549,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>538</v>
+      </c>
       <c r="Q9" t="s">
         <v>90</v>
       </c>
@@ -5373,6 +6593,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>539</v>
+      </c>
       <c r="Q10" t="s">
         <v>433</v>
       </c>
@@ -5761,7 +6984,7 @@
         <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>543</v>
       </c>
       <c r="Y25" t="s">
         <v>108</v>
@@ -5778,7 +7001,7 @@
         <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="Y26" t="s">
         <v>109</v>
@@ -5795,7 +7018,7 @@
         <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Y27" t="s">
         <v>110</v>
@@ -5812,7 +7035,7 @@
         <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>323</v>
@@ -5827,6 +7050,9 @@
       </c>
       <c r="G29" t="s">
         <v>280</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>111</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -52,7 +52,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="548">
   <si>
     <t>description</t>
   </si>
@@ -1705,6 +1705,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1724,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2395,8 +2407,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="178">
+  <fills count="208">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3401,8 +3514,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -5132,6 +5415,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5139,7 +5704,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5512,52 +6077,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="165" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="165" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="168" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="168" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="171" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="171" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="171" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="171" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="180" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="189" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="195" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="198" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="201" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="201" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6118,7 +6731,7 @@
         <v>453</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
         <v>454</v>
@@ -6201,7 +6814,7 @@
         <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -6284,7 +6897,7 @@
         <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E5" t="s">
         <v>455</v>
@@ -6308,7 +6921,7 @@
         <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -6354,6 +6967,9 @@
       <c r="B6" t="s">
         <v>372</v>
       </c>
+      <c r="D6" t="s">
+        <v>477</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -6376,7 +6992,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -6435,7 +7051,7 @@
         <v>311</v>
       </c>
       <c r="N7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -6494,7 +7110,7 @@
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q8" t="s">
         <v>89</v>
@@ -6550,7 +7166,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="Q9" t="s">
         <v>90</v>
@@ -6594,7 +7210,7 @@
         <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Q10" t="s">
         <v>433</v>
@@ -6634,6 +7250,9 @@
       <c r="M11" t="s">
         <v>467</v>
       </c>
+      <c r="N11" t="s">
+        <v>538</v>
+      </c>
       <c r="Q11" t="s">
         <v>91</v>
       </c>
@@ -6669,6 +7288,9 @@
       <c r="M12" t="s">
         <v>432</v>
       </c>
+      <c r="N12" t="s">
+        <v>539</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -6984,7 +7606,7 @@
         <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Y25" t="s">
         <v>108</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -27,7 +27,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1717,6 +1717,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1730,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2508,8 +2514,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="208">
+  <fills count="238">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3684,8 +3791,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5697,6 +5974,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5704,7 +6263,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6125,52 +6684,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="180" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="180" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="189" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="189" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="195" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="195" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="198" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="198" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="201" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="201" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="201" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="201" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="210" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="216" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="219" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="225" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="228" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="231" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="231" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6525,7 +7132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6911,6 +7518,9 @@
       <c r="H5" t="s">
         <v>456</v>
       </c>
+      <c r="I5" t="s">
+        <v>548</v>
+      </c>
       <c r="J5" t="s">
         <v>347</v>
       </c>
@@ -7787,7 +8397,7 @@
         <v>263</v>
       </c>
       <c r="Y39" t="s">
-        <v>389</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40">
@@ -7795,7 +8405,7 @@
         <v>76</v>
       </c>
       <c r="Y40" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41">
@@ -7803,7 +8413,7 @@
         <v>208</v>
       </c>
       <c r="Y41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
@@ -7811,7 +8421,7 @@
         <v>285</v>
       </c>
       <c r="Y42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
@@ -7819,7 +8429,7 @@
         <v>296</v>
       </c>
       <c r="Y43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -7827,7 +8437,7 @@
         <v>297</v>
       </c>
       <c r="Y44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
@@ -7835,7 +8445,7 @@
         <v>339</v>
       </c>
       <c r="Y45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -7843,7 +8453,7 @@
         <v>338</v>
       </c>
       <c r="Y46" t="s">
-        <v>435</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -7851,7 +8461,7 @@
         <v>207</v>
       </c>
       <c r="Y47" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48">
@@ -7859,7 +8469,7 @@
         <v>316</v>
       </c>
       <c r="Y48" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49">
@@ -7867,7 +8477,7 @@
         <v>335</v>
       </c>
       <c r="Y49" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -7875,7 +8485,7 @@
         <v>364</v>
       </c>
       <c r="Y50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
@@ -7883,7 +8493,7 @@
         <v>298</v>
       </c>
       <c r="Y51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
@@ -7891,7 +8501,7 @@
         <v>352</v>
       </c>
       <c r="Y52" t="s">
-        <v>484</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53">
@@ -7899,7 +8509,7 @@
         <v>327</v>
       </c>
       <c r="Y53" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54">
@@ -7907,7 +8517,7 @@
         <v>264</v>
       </c>
       <c r="Y54" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55">
@@ -7915,7 +8525,7 @@
         <v>288</v>
       </c>
       <c r="Y55" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -7923,7 +8533,7 @@
         <v>289</v>
       </c>
       <c r="Y56" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57">
@@ -7931,7 +8541,7 @@
         <v>290</v>
       </c>
       <c r="Y57" t="s">
-        <v>128</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58">
@@ -7939,7 +8549,7 @@
         <v>299</v>
       </c>
       <c r="Y58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -7947,7 +8557,7 @@
         <v>308</v>
       </c>
       <c r="Y59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -7955,7 +8565,7 @@
         <v>333</v>
       </c>
       <c r="Y60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -7963,7 +8573,7 @@
         <v>305</v>
       </c>
       <c r="Y61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
@@ -7971,7 +8581,7 @@
         <v>306</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
@@ -7979,7 +8589,7 @@
         <v>365</v>
       </c>
       <c r="Y63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
@@ -7987,7 +8597,7 @@
         <v>366</v>
       </c>
       <c r="Y64" t="s">
-        <v>436</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
@@ -7995,7 +8605,7 @@
         <v>341</v>
       </c>
       <c r="Y65" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66">
@@ -8003,7 +8613,7 @@
         <v>309</v>
       </c>
       <c r="Y66" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67">
@@ -8011,7 +8621,7 @@
         <v>265</v>
       </c>
       <c r="Y67" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68">
@@ -8019,7 +8629,7 @@
         <v>349</v>
       </c>
       <c r="Y68" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69">
@@ -8027,7 +8637,7 @@
         <v>310</v>
       </c>
       <c r="Y69" t="s">
-        <v>135</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70">
@@ -8035,7 +8645,7 @@
         <v>406</v>
       </c>
       <c r="Y70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -8043,7 +8653,7 @@
         <v>300</v>
       </c>
       <c r="Y71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -8051,7 +8661,7 @@
         <v>407</v>
       </c>
       <c r="Y72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
@@ -8059,7 +8669,7 @@
         <v>258</v>
       </c>
       <c r="Y73" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -8067,7 +8677,7 @@
         <v>530</v>
       </c>
       <c r="Y74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75">
@@ -8075,7 +8685,7 @@
         <v>340</v>
       </c>
       <c r="Y75" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76">
@@ -8083,7 +8693,7 @@
         <v>276</v>
       </c>
       <c r="Y76" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77">
@@ -8091,7 +8701,7 @@
         <v>282</v>
       </c>
       <c r="Y77" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78">
@@ -8099,7 +8709,7 @@
         <v>287</v>
       </c>
       <c r="Y78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
@@ -8107,7 +8717,7 @@
         <v>425</v>
       </c>
       <c r="Y79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -8115,7 +8725,7 @@
         <v>328</v>
       </c>
       <c r="Y80" t="s">
-        <v>492</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81">
@@ -8123,7 +8733,7 @@
         <v>266</v>
       </c>
       <c r="Y81" t="s">
-        <v>142</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82">
@@ -8131,7 +8741,7 @@
         <v>277</v>
       </c>
       <c r="Y82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
@@ -8139,7 +8749,7 @@
         <v>283</v>
       </c>
       <c r="Y83" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
@@ -8147,7 +8757,7 @@
         <v>272</v>
       </c>
       <c r="Y84" t="s">
-        <v>485</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85">
@@ -8155,7 +8765,7 @@
         <v>267</v>
       </c>
       <c r="Y85" t="s">
-        <v>196</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86">
@@ -8163,7 +8773,7 @@
         <v>284</v>
       </c>
       <c r="Y86" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87">
@@ -8171,7 +8781,7 @@
         <v>268</v>
       </c>
       <c r="Y87" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88">
@@ -8179,7 +8789,7 @@
         <v>269</v>
       </c>
       <c r="Y88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -8187,7 +8797,7 @@
         <v>301</v>
       </c>
       <c r="Y89" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -8195,7 +8805,7 @@
         <v>307</v>
       </c>
       <c r="Y90" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91">
@@ -8203,7 +8813,7 @@
         <v>291</v>
       </c>
       <c r="Y91" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
@@ -8211,7 +8821,7 @@
         <v>336</v>
       </c>
       <c r="Y92" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -8219,7 +8829,7 @@
         <v>273</v>
       </c>
       <c r="Y93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94">
@@ -8227,171 +8837,176 @@
         <v>274</v>
       </c>
       <c r="Y94" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>528</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>145</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>532</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>379</v>
+        <v>532</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>159</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -25,13 +25,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -46,12 +46,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5399" uniqueCount="561">
   <si>
     <t>description</t>
   </si>
@@ -1723,6 +1723,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1763,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2615,8 +2648,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="238">
+  <fills count="265">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3961,8 +4095,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -6256,6 +6543,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6263,7 +6876,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6732,52 +7345,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="210" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="210" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="216" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="216" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="219" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="219" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="225" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="225" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="228" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="228" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="231" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="231" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="231" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="231" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="240" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="243" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="246" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="249" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="255" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="246" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="258" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="258" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7132,7 +7793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7654,6 +8315,9 @@
       <c r="H7" t="s">
         <v>443</v>
       </c>
+      <c r="J7" t="s">
+        <v>552</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -7694,7 +8358,7 @@
         <v>423</v>
       </c>
       <c r="AD7" t="s">
-        <v>228</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8">
@@ -7750,7 +8414,7 @@
         <v>424</v>
       </c>
       <c r="AD8" t="s">
-        <v>229</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9">
@@ -7797,7 +8461,7 @@
         <v>185</v>
       </c>
       <c r="AD9" t="s">
-        <v>230</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
@@ -7838,7 +8502,7 @@
         <v>186</v>
       </c>
       <c r="AD10" t="s">
-        <v>470</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11">
@@ -7876,7 +8540,7 @@
         <v>255</v>
       </c>
       <c r="AD11" t="s">
-        <v>488</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12">
@@ -7896,7 +8560,7 @@
         <v>386</v>
       </c>
       <c r="M12" t="s">
-        <v>432</v>
+        <v>553</v>
       </c>
       <c r="N12" t="s">
         <v>539</v>
@@ -7914,7 +8578,7 @@
         <v>187</v>
       </c>
       <c r="AD12" t="s">
-        <v>489</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13">
@@ -7934,7 +8598,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="Q13" t="s">
         <v>92</v>
@@ -7949,7 +8613,7 @@
         <v>188</v>
       </c>
       <c r="AD13" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14">
@@ -7969,7 +8633,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>468</v>
       </c>
       <c r="Q14" t="s">
         <v>93</v>
@@ -7984,7 +8648,7 @@
         <v>189</v>
       </c>
       <c r="AD14" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15">
@@ -8001,7 +8665,7 @@
         <v>527</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>496</v>
@@ -8016,7 +8680,7 @@
         <v>190</v>
       </c>
       <c r="AD15" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16">
@@ -8033,7 +8697,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>497</v>
@@ -8048,7 +8712,7 @@
         <v>191</v>
       </c>
       <c r="AD16" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
@@ -8064,6 +8728,9 @@
       <c r="K17" t="s">
         <v>80</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>498</v>
       </c>
@@ -8071,7 +8738,7 @@
         <v>463</v>
       </c>
       <c r="AD17" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18">
@@ -8091,7 +8758,7 @@
         <v>102</v>
       </c>
       <c r="AD18" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19">
@@ -8111,7 +8778,7 @@
         <v>103</v>
       </c>
       <c r="AD19" t="s">
-        <v>231</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20">
@@ -8131,7 +8798,7 @@
         <v>104</v>
       </c>
       <c r="AD20" t="s">
-        <v>232</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21">
@@ -8151,7 +8818,7 @@
         <v>105</v>
       </c>
       <c r="AD21" t="s">
-        <v>233</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22">
@@ -8170,6 +8837,9 @@
       <c r="Y22" t="s">
         <v>483</v>
       </c>
+      <c r="AD22" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -8187,6 +8857,9 @@
       <c r="Y23" t="s">
         <v>106</v>
       </c>
+      <c r="AD23" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -8204,6 +8877,9 @@
       <c r="Y24" t="s">
         <v>107</v>
       </c>
+      <c r="AD24" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -8221,6 +8897,9 @@
       <c r="Y25" t="s">
         <v>108</v>
       </c>
+      <c r="AD25" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -8238,6 +8917,9 @@
       <c r="Y26" t="s">
         <v>109</v>
       </c>
+      <c r="AD26" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -8255,6 +8937,9 @@
       <c r="Y27" t="s">
         <v>110</v>
       </c>
+      <c r="AD27" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -8485,7 +9170,7 @@
         <v>364</v>
       </c>
       <c r="Y50" t="s">
-        <v>124</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51">
@@ -8493,7 +9178,7 @@
         <v>298</v>
       </c>
       <c r="Y51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
@@ -8501,7 +9186,7 @@
         <v>352</v>
       </c>
       <c r="Y52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
@@ -8509,7 +9194,7 @@
         <v>327</v>
       </c>
       <c r="Y53" t="s">
-        <v>484</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -8517,7 +9202,7 @@
         <v>264</v>
       </c>
       <c r="Y54" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55">
@@ -8525,7 +9210,7 @@
         <v>288</v>
       </c>
       <c r="Y55" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56">
@@ -8533,7 +9218,7 @@
         <v>289</v>
       </c>
       <c r="Y56" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -8541,7 +9226,7 @@
         <v>290</v>
       </c>
       <c r="Y57" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58">
@@ -8549,7 +9234,7 @@
         <v>299</v>
       </c>
       <c r="Y58" t="s">
-        <v>128</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59">
@@ -8557,7 +9242,7 @@
         <v>308</v>
       </c>
       <c r="Y59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
@@ -8565,7 +9250,7 @@
         <v>333</v>
       </c>
       <c r="Y60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -8573,7 +9258,7 @@
         <v>305</v>
       </c>
       <c r="Y61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -8581,7 +9266,7 @@
         <v>306</v>
       </c>
       <c r="Y62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -8589,7 +9274,7 @@
         <v>365</v>
       </c>
       <c r="Y63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -8597,7 +9282,7 @@
         <v>366</v>
       </c>
       <c r="Y64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
@@ -8605,7 +9290,7 @@
         <v>341</v>
       </c>
       <c r="Y65" t="s">
-        <v>436</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
@@ -8613,7 +9298,7 @@
         <v>309</v>
       </c>
       <c r="Y66" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67">
@@ -8621,15 +9306,15 @@
         <v>265</v>
       </c>
       <c r="Y67" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>349</v>
+        <v>550</v>
       </c>
       <c r="Y68" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69">
@@ -8637,7 +9322,7 @@
         <v>310</v>
       </c>
       <c r="Y69" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70">
@@ -8645,7 +9330,7 @@
         <v>406</v>
       </c>
       <c r="Y70" t="s">
-        <v>135</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71">
@@ -8653,7 +9338,7 @@
         <v>300</v>
       </c>
       <c r="Y71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
@@ -8661,7 +9346,7 @@
         <v>407</v>
       </c>
       <c r="Y72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
@@ -8669,7 +9354,7 @@
         <v>258</v>
       </c>
       <c r="Y73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -8677,7 +9362,7 @@
         <v>530</v>
       </c>
       <c r="Y74" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -8685,7 +9370,7 @@
         <v>340</v>
       </c>
       <c r="Y75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76">
@@ -8693,7 +9378,7 @@
         <v>276</v>
       </c>
       <c r="Y76" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
@@ -8701,7 +9386,7 @@
         <v>282</v>
       </c>
       <c r="Y77" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78">
@@ -8709,7 +9394,7 @@
         <v>287</v>
       </c>
       <c r="Y78" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79">
@@ -8717,7 +9402,7 @@
         <v>425</v>
       </c>
       <c r="Y79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
@@ -8725,7 +9410,7 @@
         <v>328</v>
       </c>
       <c r="Y80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
@@ -8733,7 +9418,7 @@
         <v>266</v>
       </c>
       <c r="Y81" t="s">
-        <v>492</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
@@ -8741,7 +9426,7 @@
         <v>277</v>
       </c>
       <c r="Y82" t="s">
-        <v>142</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83">
@@ -8749,7 +9434,7 @@
         <v>283</v>
       </c>
       <c r="Y83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -8757,256 +9442,264 @@
         <v>272</v>
       </c>
       <c r="Y84" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>267</v>
+        <v>551</v>
       </c>
       <c r="Y85" t="s">
-        <v>485</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y86" t="s">
-        <v>196</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y87" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y88" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y90" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y91" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y92" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y93" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>274</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>528</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>145</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>532</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>379</v>
+        <v>532</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>159</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -45,14 +45,15 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5399" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5950" uniqueCount="564">
   <si>
     <t>description</t>
   </si>
@@ -1756,6 +1757,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2749,8 +2759,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="265">
+  <fills count="292">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4248,8 +4359,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="259">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -6869,6 +7133,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6876,7 +7466,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7393,52 +7983,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="240" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="240" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="243" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="243" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="246" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="246" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="249" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="249" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="255" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="255" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="246" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="246" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="258" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="258" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="258" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="258" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="276" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="282" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="273" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="285" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7793,7 +8431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7878,21 +8516,24 @@
         <v>393</v>
       </c>
       <c r="Y1" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>410</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7970,21 +8611,24 @@
         <v>403</v>
       </c>
       <c r="Y2" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>428</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -8055,22 +8699,22 @@
       <c r="X3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>360</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8138,22 +8782,22 @@
       <c r="X4" t="s">
         <v>405</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>350</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>420</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8212,22 +8856,22 @@
       <c r="W5" t="s">
         <v>355</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>351</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>421</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8280,22 +8924,22 @@
       <c r="W6" t="s">
         <v>357</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>441</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>422</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8342,22 +8986,22 @@
       <c r="W7" t="s">
         <v>356</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>442</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>423</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8398,22 +9042,22 @@
       <c r="W8" t="s">
         <v>358</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>424</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>556</v>
       </c>
     </row>
@@ -8454,13 +9098,13 @@
       <c r="W9" t="s">
         <v>359</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8495,13 +9139,13 @@
       <c r="T10" t="s">
         <v>402</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8533,13 +9177,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8571,13 +9215,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8606,13 +9250,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -8641,13 +9285,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>488</v>
       </c>
     </row>
@@ -8673,13 +9317,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>489</v>
       </c>
     </row>
@@ -8705,13 +9349,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -8731,13 +9375,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>498</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>463</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -8754,10 +9398,10 @@
       <c r="K18" t="s">
         <v>459</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -8774,10 +9418,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>490</v>
       </c>
     </row>
@@ -8794,10 +9438,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8814,10 +9458,10 @@
       <c r="K21" t="s">
         <v>376</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>495</v>
       </c>
     </row>
@@ -8826,7 +9470,7 @@
         <v>409</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>562</v>
       </c>
       <c r="G22" t="s">
         <v>295</v>
@@ -8834,10 +9478,10 @@
       <c r="K22" t="s">
         <v>466</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>483</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8846,7 +9490,7 @@
         <v>353</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>286</v>
@@ -8854,10 +9498,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>558</v>
       </c>
     </row>
@@ -8866,7 +9510,7 @@
         <v>393</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
         <v>275</v>
@@ -8874,19 +9518,19 @@
       <c r="K24" t="s">
         <v>388</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>107</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>561</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>74</v>
@@ -8894,19 +9538,19 @@
       <c r="K25" t="s">
         <v>545</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>108</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="G26" t="s">
         <v>278</v>
@@ -8914,19 +9558,19 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>109</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>262</v>
@@ -8934,19 +9578,19 @@
       <c r="K27" t="s">
         <v>430</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>110</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>279</v>
@@ -8954,16 +9598,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G29" t="s">
         <v>280</v>
@@ -8971,117 +9615,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>410</v>
       </c>
       <c r="E30" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>223</v>
+      </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>412</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>529</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>549</v>
       </c>
     </row>
@@ -9089,7 +9739,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9097,7 +9747,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9105,7 +9755,7 @@
       <c r="G42" t="s">
         <v>285</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9113,7 +9763,7 @@
       <c r="G43" t="s">
         <v>296</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9121,7 +9771,7 @@
       <c r="G44" t="s">
         <v>297</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9129,7 +9779,7 @@
       <c r="G45" t="s">
         <v>339</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9137,7 +9787,7 @@
       <c r="G46" t="s">
         <v>338</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9145,7 +9795,7 @@
       <c r="G47" t="s">
         <v>207</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>435</v>
       </c>
     </row>
@@ -9153,7 +9803,7 @@
       <c r="G48" t="s">
         <v>316</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9161,7 +9811,7 @@
       <c r="G49" t="s">
         <v>335</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -9169,7 +9819,7 @@
       <c r="G50" t="s">
         <v>364</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>554</v>
       </c>
     </row>
@@ -9177,7 +9827,7 @@
       <c r="G51" t="s">
         <v>298</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9185,7 +9835,7 @@
       <c r="G52" t="s">
         <v>352</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9193,7 +9843,7 @@
       <c r="G53" t="s">
         <v>327</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9201,7 +9851,7 @@
       <c r="G54" t="s">
         <v>264</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>484</v>
       </c>
     </row>
@@ -9209,7 +9859,7 @@
       <c r="G55" t="s">
         <v>288</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>460</v>
       </c>
     </row>
@@ -9217,7 +9867,7 @@
       <c r="G56" t="s">
         <v>289</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9225,7 +9875,7 @@
       <c r="G57" t="s">
         <v>290</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9233,7 +9883,7 @@
       <c r="G58" t="s">
         <v>299</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>461</v>
       </c>
     </row>
@@ -9241,7 +9891,7 @@
       <c r="G59" t="s">
         <v>308</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9249,7 +9899,7 @@
       <c r="G60" t="s">
         <v>333</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9257,7 +9907,7 @@
       <c r="G61" t="s">
         <v>305</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9265,7 +9915,7 @@
       <c r="G62" t="s">
         <v>306</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9273,7 +9923,7 @@
       <c r="G63" t="s">
         <v>365</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9281,7 +9931,7 @@
       <c r="G64" t="s">
         <v>366</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9289,7 +9939,7 @@
       <c r="G65" t="s">
         <v>341</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9297,7 +9947,7 @@
       <c r="G66" t="s">
         <v>309</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>436</v>
       </c>
     </row>
@@ -9305,7 +9955,7 @@
       <c r="G67" t="s">
         <v>265</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>469</v>
       </c>
     </row>
@@ -9313,7 +9963,7 @@
       <c r="G68" t="s">
         <v>550</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9321,7 +9971,7 @@
       <c r="G69" t="s">
         <v>310</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>385</v>
       </c>
     </row>
@@ -9329,7 +9979,7 @@
       <c r="G70" t="s">
         <v>406</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>437</v>
       </c>
     </row>
@@ -9337,7 +9987,7 @@
       <c r="G71" t="s">
         <v>300</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9345,7 +9995,7 @@
       <c r="G72" t="s">
         <v>407</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9353,7 +10003,7 @@
       <c r="G73" t="s">
         <v>258</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9361,7 +10011,7 @@
       <c r="G74" t="s">
         <v>530</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9369,7 +10019,7 @@
       <c r="G75" t="s">
         <v>340</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9377,7 +10027,7 @@
       <c r="G76" t="s">
         <v>276</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9385,7 +10035,7 @@
       <c r="G77" t="s">
         <v>282</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9393,7 +10043,7 @@
       <c r="G78" t="s">
         <v>287</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>462</v>
       </c>
     </row>
@@ -9401,7 +10051,7 @@
       <c r="G79" t="s">
         <v>425</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -9409,7 +10059,7 @@
       <c r="G80" t="s">
         <v>328</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9417,7 +10067,7 @@
       <c r="G81" t="s">
         <v>266</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9425,7 +10075,7 @@
       <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>492</v>
       </c>
     </row>
@@ -9433,7 +10083,7 @@
       <c r="G83" t="s">
         <v>283</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9441,7 +10091,7 @@
       <c r="G84" t="s">
         <v>272</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9449,7 +10099,7 @@
       <c r="G85" t="s">
         <v>551</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9457,7 +10107,7 @@
       <c r="G86" t="s">
         <v>267</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>485</v>
       </c>
     </row>
@@ -9465,7 +10115,7 @@
       <c r="G87" t="s">
         <v>284</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9473,7 +10123,7 @@
       <c r="G88" t="s">
         <v>268</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>450</v>
       </c>
     </row>
@@ -9481,7 +10131,7 @@
       <c r="G89" t="s">
         <v>269</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9489,7 +10139,7 @@
       <c r="G90" t="s">
         <v>301</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9497,7 +10147,7 @@
       <c r="G91" t="s">
         <v>307</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -9505,7 +10155,7 @@
       <c r="G92" t="s">
         <v>291</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -9513,7 +10163,7 @@
       <c r="G93" t="s">
         <v>336</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -9521,7 +10171,7 @@
       <c r="G94" t="s">
         <v>273</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9529,177 +10179,177 @@
       <c r="G95" t="s">
         <v>274</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5950" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6503" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1766,6 +1766,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1779,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2860,8 +2866,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="292">
+  <fills count="319">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4512,8 +4619,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -7459,6 +7719,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7466,7 +8052,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8031,52 +8617,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="276" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="276" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="282" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="282" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="273" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="273" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="285" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="285" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="297" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="300" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="303" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="309" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="300" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="312" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="312" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9753,7 +10387,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>285</v>
+        <v>564</v>
       </c>
       <c r="Z42" t="s">
         <v>119</v>
@@ -9761,7 +10395,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Z43" t="s">
         <v>120</v>
@@ -9769,7 +10403,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z44" t="s">
         <v>121</v>
@@ -9777,7 +10411,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Z45" t="s">
         <v>122</v>
@@ -9785,7 +10419,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z46" t="s">
         <v>123</v>
@@ -9793,7 +10427,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Z47" t="s">
         <v>435</v>
@@ -9801,7 +10435,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Z48" t="s">
         <v>209</v>
@@ -9809,7 +10443,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Z49" t="s">
         <v>75</v>
@@ -9817,7 +10451,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="Z50" t="s">
         <v>554</v>
@@ -9825,7 +10459,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="Z51" t="s">
         <v>124</v>
@@ -9833,7 +10467,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="Z52" t="s">
         <v>125</v>
@@ -9841,7 +10475,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="Z53" t="s">
         <v>126</v>
@@ -9849,7 +10483,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Z54" t="s">
         <v>484</v>
@@ -9857,7 +10491,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Z55" t="s">
         <v>460</v>
@@ -9865,7 +10499,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z56" t="s">
         <v>127</v>
@@ -9873,7 +10507,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z57" t="s">
         <v>342</v>
@@ -9881,7 +10515,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>299</v>
+        <v>565</v>
       </c>
       <c r="Z58" t="s">
         <v>461</v>
@@ -9889,7 +10523,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="Z59" t="s">
         <v>128</v>
@@ -9897,7 +10531,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="Z60" t="s">
         <v>129</v>
@@ -9905,7 +10539,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Z61" t="s">
         <v>130</v>
@@ -9913,7 +10547,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Z62" t="s">
         <v>131</v>
@@ -9921,7 +10555,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="Z63" t="s">
         <v>132</v>
@@ -9929,7 +10563,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="Z64" t="s">
         <v>133</v>
@@ -9937,7 +10571,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Z65" t="s">
         <v>134</v>
@@ -9945,7 +10579,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="Z66" t="s">
         <v>436</v>
@@ -9953,7 +10587,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="Z67" t="s">
         <v>469</v>
@@ -9961,7 +10595,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>550</v>
+        <v>309</v>
       </c>
       <c r="Z68" t="s">
         <v>210</v>
@@ -9969,7 +10603,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="Z69" t="s">
         <v>385</v>
@@ -9977,7 +10611,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>406</v>
+        <v>550</v>
       </c>
       <c r="Z70" t="s">
         <v>437</v>
@@ -9985,7 +10619,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Z71" t="s">
         <v>135</v>
@@ -9993,7 +10627,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z72" t="s">
         <v>136</v>
@@ -10001,7 +10635,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="Z73" t="s">
         <v>137</v>
@@ -10009,7 +10643,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>530</v>
+        <v>407</v>
       </c>
       <c r="Z74" t="s">
         <v>138</v>
@@ -10017,7 +10651,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="Z75" t="s">
         <v>193</v>
@@ -10025,7 +10659,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>276</v>
+        <v>530</v>
       </c>
       <c r="Z76" t="s">
         <v>194</v>
@@ -10033,7 +10667,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="Z77" t="s">
         <v>449</v>
@@ -10041,7 +10675,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Z78" t="s">
         <v>462</v>
@@ -10049,7 +10683,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>425</v>
+        <v>282</v>
       </c>
       <c r="Z79" t="s">
         <v>139</v>
@@ -10057,7 +10691,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="Z80" t="s">
         <v>140</v>
@@ -10065,7 +10699,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="Z81" t="s">
         <v>141</v>
@@ -10073,7 +10707,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="Z82" t="s">
         <v>492</v>
@@ -10081,7 +10715,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="Z83" t="s">
         <v>142</v>
@@ -10089,7 +10723,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z84" t="s">
         <v>143</v>
@@ -10097,7 +10731,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>551</v>
+        <v>283</v>
       </c>
       <c r="Z85" t="s">
         <v>195</v>
@@ -10105,7 +10739,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Z86" t="s">
         <v>485</v>
@@ -10113,7 +10747,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>284</v>
+        <v>551</v>
       </c>
       <c r="Z87" t="s">
         <v>196</v>
@@ -10121,7 +10755,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z88" t="s">
         <v>450</v>
@@ -10129,7 +10763,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Z89" t="s">
         <v>197</v>
@@ -10137,7 +10771,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="Z90" t="s">
         <v>198</v>
@@ -10145,7 +10779,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="Z91" t="s">
         <v>211</v>
@@ -10153,7 +10787,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Z92" t="s">
         <v>144</v>
@@ -10161,7 +10795,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="Z93" t="s">
         <v>199</v>
@@ -10169,7 +10803,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="Z94" t="s">
         <v>438</v>
@@ -10177,18 +10811,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="Z95" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
       <c r="Z96" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>274</v>
+      </c>
       <c r="Z97" t="s">
         <v>201</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -45,13 +45,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6503" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7054" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1772,6 +1772,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2967,8 +2970,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="319">
+  <fills count="346">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4772,8 +4876,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -8045,6 +8302,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8052,7 +8635,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8665,52 +9248,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="297" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="297" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="300" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="300" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="303" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="303" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="309" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="309" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="300" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="300" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="312" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="312" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="312" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="312" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="321" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="327" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="330" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="336" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="327" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9065,7 +9696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9150,24 +9781,21 @@
         <v>393</v>
       </c>
       <c r="Y1" t="s">
-        <v>561</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="AD1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -9245,24 +9873,21 @@
         <v>403</v>
       </c>
       <c r="Y2" t="s">
-        <v>563</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
       <c r="AD2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -9333,22 +9958,22 @@
       <c r="X3" t="s">
         <v>404</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AC3" t="s">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -9416,22 +10041,22 @@
       <c r="X4" t="s">
         <v>405</v>
       </c>
+      <c r="Y4" t="s">
+        <v>350</v>
+      </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="AD4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9490,22 +10115,22 @@
       <c r="W5" t="s">
         <v>355</v>
       </c>
+      <c r="Y5" t="s">
+        <v>351</v>
+      </c>
       <c r="Z5" t="s">
-        <v>351</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="AD5" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9558,22 +10183,22 @@
       <c r="W6" t="s">
         <v>357</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>441</v>
       </c>
       <c r="AA6" t="s">
-        <v>441</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="AD6" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9620,22 +10245,22 @@
       <c r="W7" t="s">
         <v>356</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="AA7" t="s">
-        <v>442</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD7" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE7" t="s">
         <v>555</v>
       </c>
     </row>
@@ -9676,22 +10301,22 @@
       <c r="W8" t="s">
         <v>358</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD8" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE8" t="s">
         <v>556</v>
       </c>
     </row>
@@ -9732,13 +10357,13 @@
       <c r="W9" t="s">
         <v>359</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>557</v>
       </c>
     </row>
@@ -9773,13 +10398,13 @@
       <c r="T10" t="s">
         <v>402</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9811,13 +10436,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9849,13 +10474,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9884,13 +10509,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9919,13 +10544,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>488</v>
       </c>
     </row>
@@ -9951,13 +10576,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>489</v>
       </c>
     </row>
@@ -9975,7 +10600,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>566</v>
       </c>
       <c r="Q16" t="s">
         <v>497</v>
@@ -9983,13 +10608,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -10007,15 +10632,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>498</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>463</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -10032,10 +10657,13 @@
       <c r="K18" t="s">
         <v>459</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -10052,10 +10680,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>490</v>
       </c>
     </row>
@@ -10072,10 +10700,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10092,10 +10720,10 @@
       <c r="K21" t="s">
         <v>376</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>495</v>
       </c>
     </row>
@@ -10112,10 +10740,10 @@
       <c r="K22" t="s">
         <v>466</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>483</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -10132,10 +10760,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10152,16 +10780,16 @@
       <c r="K24" t="s">
         <v>388</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>561</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -10172,16 +10800,16 @@
       <c r="K25" t="s">
         <v>545</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>445</v>
@@ -10192,16 +10820,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -10212,16 +10840,16 @@
       <c r="K27" t="s">
         <v>430</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -10232,13 +10860,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E29" t="s">
         <v>464</v>
@@ -10249,13 +10877,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>465</v>
@@ -10263,21 +10891,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>412</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10288,7 +10913,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -10299,7 +10924,7 @@
       <c r="G33" t="s">
         <v>529</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10310,7 +10935,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10321,7 +10946,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -10332,7 +10957,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10343,7 +10968,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10354,7 +10979,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -10365,7 +10990,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>549</v>
       </c>
     </row>
@@ -10373,7 +10998,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>389</v>
       </c>
     </row>
@@ -10381,7 +11006,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10389,7 +11014,7 @@
       <c r="G42" t="s">
         <v>564</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10397,7 +11022,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10405,7 +11030,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10413,7 +11038,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10421,7 +11046,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10429,7 +11054,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>435</v>
       </c>
     </row>
@@ -10437,7 +11062,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10445,7 +11070,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10453,7 +11078,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>554</v>
       </c>
     </row>
@@ -10461,7 +11086,7 @@
       <c r="G51" t="s">
         <v>364</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10469,7 +11094,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -10477,7 +11102,7 @@
       <c r="G53" t="s">
         <v>352</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10485,7 +11110,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>484</v>
       </c>
     </row>
@@ -10493,7 +11118,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>460</v>
       </c>
     </row>
@@ -10501,7 +11126,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10509,7 +11134,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -10517,7 +11142,7 @@
       <c r="G58" t="s">
         <v>565</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>461</v>
       </c>
     </row>
@@ -10525,7 +11150,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10533,7 +11158,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10541,7 +11166,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10549,7 +11174,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10557,7 +11182,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10565,7 +11190,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10573,7 +11198,7 @@
       <c r="G65" t="s">
         <v>365</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10581,7 +11206,7 @@
       <c r="G66" t="s">
         <v>366</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>436</v>
       </c>
     </row>
@@ -10589,7 +11214,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>469</v>
       </c>
     </row>
@@ -10597,7 +11222,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -10605,7 +11230,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>385</v>
       </c>
     </row>
@@ -10613,7 +11238,7 @@
       <c r="G70" t="s">
         <v>550</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>437</v>
       </c>
     </row>
@@ -10621,7 +11246,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10629,7 +11254,7 @@
       <c r="G72" t="s">
         <v>406</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10637,7 +11262,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -10645,7 +11270,7 @@
       <c r="G74" t="s">
         <v>407</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10653,7 +11278,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -10661,7 +11286,7 @@
       <c r="G76" t="s">
         <v>530</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -10669,7 +11294,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>449</v>
       </c>
     </row>
@@ -10677,7 +11302,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>462</v>
       </c>
     </row>
@@ -10685,7 +11310,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10693,7 +11318,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10701,7 +11326,7 @@
       <c r="G81" t="s">
         <v>425</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10709,7 +11334,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>492</v>
       </c>
     </row>
@@ -10717,7 +11342,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -10725,7 +11350,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -10733,7 +11358,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -10741,7 +11366,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>485</v>
       </c>
     </row>
@@ -10749,7 +11374,7 @@
       <c r="G87" t="s">
         <v>551</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -10757,7 +11382,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>450</v>
       </c>
     </row>
@@ -10765,7 +11390,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10773,7 +11398,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -10781,7 +11406,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -10789,7 +11414,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10797,7 +11422,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10805,7 +11430,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>438</v>
       </c>
     </row>
@@ -10813,7 +11438,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>439</v>
       </c>
     </row>
@@ -10821,7 +11446,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10829,167 +11454,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7054" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9825" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1775,6 +1775,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1794,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="283" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3071,8 +3083,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="346">
+  <fills count="481">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5029,8 +5546,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="515">
     <border>
       <left/>
       <right/>
@@ -8628,6 +9910,1636 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8635,7 +11547,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="310">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9296,52 +12208,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="321" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="321" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="327" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="327" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="330" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="330" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="336" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="336" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="327" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="327" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="205" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="354" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="360" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="363" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="354" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="366" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="366" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="372" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="378" fontId="221" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="381" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="384" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="225" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="381" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="393" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="393" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="402" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="405" fontId="237" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="408" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="411" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="417" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="408" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="420" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="420" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="429" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="432" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="435" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="438" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="257" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="444" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="435" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="447" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="447" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="456" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="459" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="462" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="465" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="471" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="462" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="474" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="474" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9696,7 +12848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10781,7 +13933,7 @@
         <v>388</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="AD24" t="s">
         <v>559</v>
@@ -10801,7 +13953,7 @@
         <v>545</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD25" t="s">
         <v>560</v>
@@ -10821,7 +13973,7 @@
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
         <v>232</v>
@@ -10841,7 +13993,7 @@
         <v>430</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD27" t="s">
         <v>233</v>
@@ -10861,7 +14013,7 @@
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -10878,7 +14030,7 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -10892,7 +14044,7 @@
         <v>212</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -10903,7 +14055,7 @@
         <v>271</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -10914,7 +14066,7 @@
         <v>281</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -10925,7 +14077,7 @@
         <v>529</v>
       </c>
       <c r="Y33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -10936,7 +14088,7 @@
         <v>256</v>
       </c>
       <c r="Y34" t="s">
-        <v>116</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35">
@@ -10947,7 +14099,7 @@
         <v>326</v>
       </c>
       <c r="Y35" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -10958,7 +14110,7 @@
         <v>303</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -10969,7 +14121,7 @@
         <v>257</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -10980,7 +14132,7 @@
         <v>304</v>
       </c>
       <c r="Y38" t="s">
-        <v>434</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -10991,7 +14143,7 @@
         <v>263</v>
       </c>
       <c r="Y39" t="s">
-        <v>549</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
@@ -10999,7 +14151,7 @@
         <v>76</v>
       </c>
       <c r="Y40" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41">
@@ -11007,7 +14159,7 @@
         <v>208</v>
       </c>
       <c r="Y41" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42">
@@ -11015,7 +14167,7 @@
         <v>564</v>
       </c>
       <c r="Y42" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
@@ -11023,7 +14175,7 @@
         <v>285</v>
       </c>
       <c r="Y43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -11031,7 +14183,7 @@
         <v>296</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
@@ -11039,7 +14191,7 @@
         <v>297</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -11047,7 +14199,7 @@
         <v>339</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -11055,7 +14207,7 @@
         <v>338</v>
       </c>
       <c r="Y47" t="s">
-        <v>435</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -11063,7 +14215,7 @@
         <v>207</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -11071,7 +14223,7 @@
         <v>316</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50">
@@ -11079,7 +14231,7 @@
         <v>335</v>
       </c>
       <c r="Y50" t="s">
-        <v>554</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51">
@@ -11087,7 +14239,7 @@
         <v>364</v>
       </c>
       <c r="Y51" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
@@ -11095,7 +14247,7 @@
         <v>298</v>
       </c>
       <c r="Y52" t="s">
-        <v>125</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53">
@@ -11103,7 +14255,7 @@
         <v>352</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -11111,7 +14263,7 @@
         <v>327</v>
       </c>
       <c r="Y54" t="s">
-        <v>484</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -11119,7 +14271,7 @@
         <v>264</v>
       </c>
       <c r="Y55" t="s">
-        <v>460</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -11127,7 +14279,7 @@
         <v>288</v>
       </c>
       <c r="Y56" t="s">
-        <v>127</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
@@ -11135,7 +14287,7 @@
         <v>289</v>
       </c>
       <c r="Y57" t="s">
-        <v>342</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58">
@@ -11143,7 +14295,7 @@
         <v>565</v>
       </c>
       <c r="Y58" t="s">
-        <v>461</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
@@ -11151,7 +14303,7 @@
         <v>290</v>
       </c>
       <c r="Y59" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
@@ -11159,7 +14311,7 @@
         <v>299</v>
       </c>
       <c r="Y60" t="s">
-        <v>129</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61">
@@ -11167,7 +14319,7 @@
         <v>308</v>
       </c>
       <c r="Y61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
@@ -11175,7 +14327,7 @@
         <v>333</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
@@ -11183,7 +14335,7 @@
         <v>305</v>
       </c>
       <c r="Y63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -11191,7 +14343,7 @@
         <v>306</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -11199,7 +14351,7 @@
         <v>365</v>
       </c>
       <c r="Y65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -11207,7 +14359,7 @@
         <v>366</v>
       </c>
       <c r="Y66" t="s">
-        <v>436</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -11215,7 +14367,7 @@
         <v>341</v>
       </c>
       <c r="Y67" t="s">
-        <v>469</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -11223,7 +14375,7 @@
         <v>309</v>
       </c>
       <c r="Y68" t="s">
-        <v>210</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69">
@@ -11231,7 +14383,7 @@
         <v>265</v>
       </c>
       <c r="Y69" t="s">
-        <v>385</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70">
@@ -11239,7 +14391,7 @@
         <v>550</v>
       </c>
       <c r="Y70" t="s">
-        <v>437</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
@@ -11247,7 +14399,7 @@
         <v>310</v>
       </c>
       <c r="Y71" t="s">
-        <v>135</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72">
@@ -11255,7 +14407,7 @@
         <v>406</v>
       </c>
       <c r="Y72" t="s">
-        <v>136</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73">
@@ -11263,7 +14415,7 @@
         <v>300</v>
       </c>
       <c r="Y73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
@@ -11271,7 +14423,7 @@
         <v>407</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
@@ -11279,7 +14431,7 @@
         <v>258</v>
       </c>
       <c r="Y75" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -11287,7 +14439,7 @@
         <v>530</v>
       </c>
       <c r="Y76" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -11295,7 +14447,7 @@
         <v>340</v>
       </c>
       <c r="Y77" t="s">
-        <v>449</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
@@ -11303,7 +14455,7 @@
         <v>276</v>
       </c>
       <c r="Y78" t="s">
-        <v>462</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -11311,7 +14463,7 @@
         <v>282</v>
       </c>
       <c r="Y79" t="s">
-        <v>139</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80">
@@ -11319,7 +14471,7 @@
         <v>287</v>
       </c>
       <c r="Y80" t="s">
-        <v>140</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81">
@@ -11327,7 +14479,7 @@
         <v>425</v>
       </c>
       <c r="Y81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
@@ -11335,7 +14487,7 @@
         <v>328</v>
       </c>
       <c r="Y82" t="s">
-        <v>492</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -11343,7 +14495,7 @@
         <v>266</v>
       </c>
       <c r="Y83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -11351,7 +14503,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>143</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85">
@@ -11359,7 +14511,7 @@
         <v>283</v>
       </c>
       <c r="Y85" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
@@ -11367,7 +14519,7 @@
         <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>485</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
@@ -11375,7 +14527,7 @@
         <v>551</v>
       </c>
       <c r="Y87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -11383,7 +14535,7 @@
         <v>267</v>
       </c>
       <c r="Y88" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89">
@@ -11391,7 +14543,7 @@
         <v>284</v>
       </c>
       <c r="Y89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
@@ -11399,7 +14551,7 @@
         <v>268</v>
       </c>
       <c r="Y90" t="s">
-        <v>198</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91">
@@ -11407,7 +14559,7 @@
         <v>269</v>
       </c>
       <c r="Y91" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
@@ -11415,7 +14567,7 @@
         <v>301</v>
       </c>
       <c r="Y92" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -11423,7 +14575,7 @@
         <v>307</v>
       </c>
       <c r="Y93" t="s">
-        <v>199</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94">
@@ -11431,7 +14583,7 @@
         <v>291</v>
       </c>
       <c r="Y94" t="s">
-        <v>438</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95">
@@ -11439,7 +14591,7 @@
         <v>336</v>
       </c>
       <c r="Y95" t="s">
-        <v>439</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
@@ -11447,7 +14599,7 @@
         <v>273</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
@@ -11455,166 +14607,186 @@
         <v>274</v>
       </c>
       <c r="Y97" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>528</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>531</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>379</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>147</v>
+        <v>532</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>148</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>440</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>161</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>569</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9825" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10381" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1787,6 +1787,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1800,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="283" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3588,8 +3594,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="481">
+  <fills count="508">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6311,8 +6418,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="515">
+  <borders count="547">
     <border>
       <left/>
       <right/>
@@ -11540,6 +11800,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11547,7 +12133,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="326">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12448,52 +13034,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="456" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="456" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="459" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="459" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="462" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="462" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="465" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="465" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="273" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="471" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="471" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="462" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="462" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="474" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="474" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="474" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="474" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="480" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="483" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="486" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="489" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="492" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="498" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="489" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="501" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="501" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13229,7 +13863,7 @@
         <v>429</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>571</v>
       </c>
       <c r="H5" t="s">
         <v>456</v>
@@ -13303,7 +13937,7 @@
         <v>524</v>
       </c>
       <c r="G6" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
         <v>444</v>
@@ -13365,7 +13999,7 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="H7" t="s">
         <v>443</v>
@@ -13427,7 +14061,7 @@
         <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -13483,7 +14117,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="H9" t="s">
         <v>325</v>
@@ -13527,7 +14161,7 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
         <v>448</v>
@@ -13568,7 +14202,7 @@
         <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
@@ -13606,7 +14240,7 @@
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -13644,7 +14278,7 @@
         <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -13679,7 +14313,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
@@ -13714,7 +14348,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
         <v>527</v>
@@ -13746,7 +14380,7 @@
         <v>381</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -13778,7 +14412,7 @@
         <v>382</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -13804,7 +14438,7 @@
         <v>411</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>459</v>
@@ -13827,7 +14461,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -13847,7 +14481,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -13867,7 +14501,7 @@
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" t="s">
         <v>376</v>
@@ -13887,7 +14521,7 @@
         <v>562</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>466</v>
@@ -13907,7 +14541,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -13927,7 +14561,7 @@
         <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
         <v>388</v>
@@ -13947,7 +14581,7 @@
         <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
         <v>545</v>
@@ -13967,7 +14601,7 @@
         <v>445</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
@@ -13987,7 +14621,7 @@
         <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
         <v>430</v>
@@ -14007,7 +14641,7 @@
         <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -14024,7 +14658,7 @@
         <v>464</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -14041,7 +14675,7 @@
         <v>465</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
         <v>111</v>
@@ -14052,7 +14686,7 @@
         <v>412</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s">
         <v>112</v>
@@ -14063,7 +14697,7 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s">
         <v>113</v>
@@ -14074,7 +14708,7 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>529</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
         <v>114</v>
@@ -14085,7 +14719,7 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>529</v>
       </c>
       <c r="Y34" t="s">
         <v>568</v>
@@ -14096,7 +14730,7 @@
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s">
         <v>115</v>
@@ -14107,7 +14741,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
         <v>116</v>
@@ -14118,7 +14752,7 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
         <v>206</v>
@@ -14129,7 +14763,7 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y38" t="s">
         <v>117</v>
@@ -14140,7 +14774,7 @@
         <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
         <v>334</v>
@@ -14148,7 +14782,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s">
         <v>434</v>
@@ -14156,7 +14790,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
         <v>549</v>
@@ -14164,7 +14798,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>564</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s">
         <v>389</v>
@@ -14172,7 +14806,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>285</v>
+        <v>564</v>
       </c>
       <c r="Y43" t="s">
         <v>118</v>
@@ -14180,7 +14814,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s">
         <v>119</v>
@@ -14188,7 +14822,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
         <v>120</v>
@@ -14196,7 +14830,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y46" t="s">
         <v>121</v>
@@ -14204,7 +14838,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s">
         <v>122</v>
@@ -14212,7 +14846,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
         <v>123</v>
@@ -14220,7 +14854,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s">
         <v>435</v>
@@ -14228,7 +14862,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
         <v>209</v>
@@ -14236,7 +14870,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s">
         <v>75</v>
@@ -14244,7 +14878,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="Y52" t="s">
         <v>554</v>
@@ -14252,7 +14886,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s">
         <v>124</v>
@@ -14260,7 +14894,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="Y54" t="s">
         <v>125</v>
@@ -14268,7 +14902,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Y55" t="s">
         <v>126</v>
@@ -14276,7 +14910,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y56" t="s">
         <v>484</v>
@@ -14284,7 +14918,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y57" t="s">
         <v>460</v>
@@ -14292,7 +14926,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>565</v>
+        <v>289</v>
       </c>
       <c r="Y58" t="s">
         <v>127</v>
@@ -14300,7 +14934,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>290</v>
+        <v>565</v>
       </c>
       <c r="Y59" t="s">
         <v>342</v>
@@ -14308,7 +14942,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y60" t="s">
         <v>461</v>
@@ -14316,7 +14950,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y61" t="s">
         <v>128</v>
@@ -14324,7 +14958,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Y62" t="s">
         <v>129</v>
@@ -14332,7 +14966,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s">
         <v>130</v>
@@ -14340,7 +14974,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y64" t="s">
         <v>131</v>
@@ -14348,7 +14982,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s">
         <v>132</v>
@@ -14356,7 +14990,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Y66" t="s">
         <v>133</v>
@@ -14364,7 +14998,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="Y67" t="s">
         <v>134</v>
@@ -14372,7 +15006,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y68" t="s">
         <v>436</v>
@@ -14380,7 +15014,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Y69" t="s">
         <v>469</v>
@@ -14388,7 +15022,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>550</v>
+        <v>265</v>
       </c>
       <c r="Y70" t="s">
         <v>210</v>
@@ -14396,7 +15030,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="Y71" t="s">
         <v>385</v>
@@ -14404,7 +15038,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="Y72" t="s">
         <v>437</v>
@@ -14412,7 +15046,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="Y73" t="s">
         <v>135</v>
@@ -14420,7 +15054,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="Y74" t="s">
         <v>136</v>
@@ -14428,7 +15062,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>258</v>
+        <v>407</v>
       </c>
       <c r="Y75" t="s">
         <v>137</v>
@@ -14436,7 +15070,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>530</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s">
         <v>138</v>
@@ -14444,7 +15078,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>340</v>
+        <v>530</v>
       </c>
       <c r="Y77" t="s">
         <v>193</v>
@@ -14452,7 +15086,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Y78" t="s">
         <v>194</v>
@@ -14460,7 +15094,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Y79" t="s">
         <v>449</v>
@@ -14468,7 +15102,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y80" t="s">
         <v>462</v>
@@ -14476,7 +15110,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>425</v>
+        <v>287</v>
       </c>
       <c r="Y81" t="s">
         <v>139</v>
@@ -14484,7 +15118,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>328</v>
+        <v>425</v>
       </c>
       <c r="Y82" t="s">
         <v>140</v>
@@ -14492,7 +15126,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Y83" t="s">
         <v>141</v>
@@ -14500,7 +15134,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Y84" t="s">
         <v>492</v>
@@ -14508,7 +15142,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Y85" t="s">
         <v>142</v>
@@ -14516,7 +15150,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Y86" t="s">
         <v>143</v>
@@ -14524,7 +15158,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>551</v>
+        <v>272</v>
       </c>
       <c r="Y87" t="s">
         <v>195</v>
@@ -14532,7 +15166,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>267</v>
+        <v>551</v>
       </c>
       <c r="Y88" t="s">
         <v>485</v>
@@ -14540,7 +15174,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y89" t="s">
         <v>196</v>
@@ -14548,7 +15182,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s">
         <v>450</v>
@@ -14556,7 +15190,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s">
         <v>197</v>
@@ -14564,7 +15198,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s">
         <v>198</v>
@@ -14572,15 +15206,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y94" t="s">
         <v>211</v>
@@ -14588,7 +15222,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y95" t="s">
         <v>144</v>
@@ -14596,7 +15230,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y96" t="s">
         <v>199</v>
@@ -14604,13 +15238,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y97" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>274</v>
+      </c>
       <c r="Y98" t="s">
         <v>439</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10381" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10938" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1793,6 +1793,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1803,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="315" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3695,8 +3698,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="508">
+  <fills count="535">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6571,8 +6675,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="547">
+  <borders count="579">
     <border>
       <left/>
       <right/>
@@ -12126,6 +12383,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12133,7 +12716,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="342">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13082,52 +13665,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="480" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="483" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="483" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="486" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="486" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="489" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="489" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="492" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="492" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="498" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="498" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="489" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="489" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="501" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="501" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="501" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="501" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="510" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="513" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="516" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="519" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="525" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="516" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="528" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="528" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13482,7 +14113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15217,7 +15848,7 @@
         <v>307</v>
       </c>
       <c r="Y94" t="s">
-        <v>211</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95">
@@ -15225,7 +15856,7 @@
         <v>291</v>
       </c>
       <c r="Y95" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
@@ -15233,7 +15864,7 @@
         <v>336</v>
       </c>
       <c r="Y96" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
@@ -15241,7 +15872,7 @@
         <v>273</v>
       </c>
       <c r="Y97" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
@@ -15249,181 +15880,186 @@
         <v>274</v>
       </c>
       <c r="Y98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>528</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>145</v>
+        <v>531</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>532</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>379</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>159</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>569</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -21,39 +21,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10938" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11499" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1796,6 +1797,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1822,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="315" x14ac:knownFonts="1">
+  <fonts count="331" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3799,8 +3818,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="535">
+  <fills count="562">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6828,8 +6948,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="579">
+  <borders count="611">
     <border>
       <left/>
       <right/>
@@ -12709,6 +12982,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12716,7 +13315,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="358">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13713,52 +14312,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="510" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="510" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="513" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="513" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="516" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="516" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="519" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="519" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="525" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="525" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="516" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="516" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="528" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="528" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="528" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="528" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="537" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="540" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="543" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="546" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="552" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="543" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="555" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="555" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14113,7 +14760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14138,81 +14785,84 @@
         <v>472</v>
       </c>
       <c r="E1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>533</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>473</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>392</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>408</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>409</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>353</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>393</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>410</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -14230,81 +14880,84 @@
         <v>474</v>
       </c>
       <c r="E2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>446</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>457</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>380</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>431</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>534</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>480</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>426</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>394</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>415</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>416</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>377</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>403</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>428</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -14321,76 +14974,76 @@
       <c r="D3" t="s">
         <v>544</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>454</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>361</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>478</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>535</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>481</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>427</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>395</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>417</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>378</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>360</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -14404,82 +15057,82 @@
       <c r="D4" t="s">
         <v>475</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>383</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>447</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>479</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>536</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>482</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>396</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>418</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>354</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>405</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>350</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>420</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>574</v>
       </c>
       <c r="B5" t="s">
         <v>371</v>
@@ -14487,73 +15140,73 @@
       <c r="D5" t="s">
         <v>476</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>455</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>429</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>571</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>456</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>548</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>458</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>546</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>397</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>419</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>355</v>
       </c>
-      <c r="Y5" t="s">
-        <v>351</v>
-      </c>
       <c r="Z5" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>421</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>372</v>
@@ -14561,1505 +15214,1513 @@
       <c r="D6" t="s">
         <v>477</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>524</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>332</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>444</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>540</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>387</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>398</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>357</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>441</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>422</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>373</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>384</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>443</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>552</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>541</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>414</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>399</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>356</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>442</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>423</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>374</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>362</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>525</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>542</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>400</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>358</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>424</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>375</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>363</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>547</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>401</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>359</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>448</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>537</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>433</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>402</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>576</v>
+      </c>
+      <c r="H11" t="s">
         <v>348</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>526</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>467</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>538</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>270</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>386</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>553</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>539</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>432</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>533</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>312</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>468</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E15" t="s">
+        <v>533</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>260</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>527</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>496</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" t="s">
         <v>381</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>566</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>497</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>382</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>498</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>463</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>411</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>459</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>392</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>292</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>376</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" t="s">
         <v>562</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>466</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>483</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E23" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>295</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>286</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>388</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>567</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>275</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>545</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>107</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>445</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>74</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>278</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>430</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>109</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>262</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>410</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>464</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>279</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>465</v>
-      </c>
-      <c r="G30" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>412</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>529</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y41" t="s">
-        <v>549</v>
+      <c r="Z41" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>564</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>364</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>352</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>565</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>365</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>366</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>550</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>406</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>407</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>530</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>425</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>551</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11499" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12060" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1822,7 +1822,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="331" x14ac:knownFonts="1">
+  <fonts count="347" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3919,8 +3919,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="562">
+  <fills count="589">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7101,8 +7202,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="611">
+  <borders count="643">
     <border>
       <left/>
       <right/>
@@ -13308,6 +13562,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13315,7 +13895,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="374">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14360,52 +14940,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="537" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="537" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="540" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="540" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="543" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="543" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="546" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="546" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="552" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="552" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="543" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="543" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="555" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="555" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="555" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="555" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="564" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="567" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="570" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="573" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="579" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="570" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="582" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="582" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12060" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13184" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1815,6 +1815,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1828,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="347" x14ac:knownFonts="1">
+  <fonts count="379" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4020,8 +4026,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="589">
+  <fills count="643">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7355,8 +7563,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="643">
+  <borders count="707">
     <border>
       <left/>
       <right/>
@@ -13888,6 +14402,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13895,7 +15061,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="406">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14988,52 +16154,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="564" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="564" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="567" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="567" fontId="333" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="570" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="570" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="573" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="573" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="337" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="579" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="579" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="570" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="570" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="582" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="582" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="582" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="582" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="591" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="594" fontId="349" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="597" fontId="350" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="600" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="353" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="606" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="597" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="609" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="609" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="618" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="621" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="624" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="627" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="633" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="624" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="636" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="636" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16347,7 +17609,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>411</v>
+        <v>580</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -16370,7 +17632,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>411</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -16390,7 +17652,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -16410,13 +17672,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>376</v>
+        <v>581</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -16430,7 +17692,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>562</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -16450,7 +17712,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>562</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -16470,7 +17732,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -16490,7 +17752,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -16510,7 +17772,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -16530,7 +17792,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -16550,7 +17812,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -16567,7 +17829,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -16584,7 +17846,7 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -16598,7 +17860,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -16609,7 +17871,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>412</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -16620,7 +17882,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -16631,7 +17893,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>529</v>
@@ -16642,7 +17904,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -16653,7 +17915,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -16664,7 +17926,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -16675,7 +17937,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -16686,7 +17948,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -16696,6 +17958,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -21,15 +21,15 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13184" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13749" uniqueCount="587">
   <si>
     <t>description</t>
   </si>
@@ -1821,6 +1821,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1843,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="379" x14ac:knownFonts="1">
+  <fonts count="395" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4228,8 +4243,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="643">
+  <fills count="670">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7869,8 +7985,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="707">
+  <borders count="739">
     <border>
       <left/>
       <right/>
@@ -15054,6 +15323,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15061,7 +15656,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="422">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16250,52 +16845,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="618" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="618" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="621" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="621" fontId="365" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="624" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="624" fontId="366" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="627" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="627" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="369" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="633" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="633" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="624" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="624" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="636" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="636" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="636" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="636" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="645" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="648" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="651" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="654" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="660" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="651" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="663" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="663" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16650,7 +17293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16966,7 +17609,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>583</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -17002,7 +17645,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>584</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -17049,7 +17692,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>458</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -17116,11 +17759,14 @@
       <c r="I6" t="s">
         <v>444</v>
       </c>
+      <c r="J6" t="s">
+        <v>582</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -17182,7 +17828,7 @@
         <v>552</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -17241,7 +17887,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>525</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -17297,7 +17943,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -17341,7 +17987,7 @@
         <v>448</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -17382,7 +18028,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>526</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>467</v>
@@ -17420,7 +18066,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>386</v>
+        <v>526</v>
       </c>
       <c r="N12" t="s">
         <v>553</v>
@@ -17458,7 +18104,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="N13" t="s">
         <v>432</v>
@@ -17493,7 +18139,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>468</v>
@@ -17525,7 +18171,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>527</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -17557,7 +18203,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="N16" t="s">
         <v>566</v>
@@ -17589,7 +18235,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -17609,13 +18255,13 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>580</v>
+        <v>411</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -17632,13 +18278,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -17652,13 +18298,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -17672,13 +18318,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -17692,13 +18338,13 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>562</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>581</v>
       </c>
       <c r="Z22" t="s">
         <v>483</v>
@@ -17712,13 +18358,13 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>562</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -17732,13 +18378,13 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>567</v>
@@ -17752,13 +18398,13 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>545</v>
+        <v>388</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -17772,13 +18418,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>545</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -17792,13 +18438,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -17812,13 +18458,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -17829,13 +18475,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>464</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -17846,10 +18492,13 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -17860,7 +18509,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -17871,7 +18520,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -17882,7 +18531,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -17893,7 +18542,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>529</v>
@@ -17904,7 +18553,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -17915,7 +18564,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -17926,7 +18575,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -17937,7 +18586,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -17948,7 +18597,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -17958,9 +18607,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -18434,186 +19080,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>439</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>586</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>528</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>579</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>440</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>569</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>569</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13749" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14314" uniqueCount="587">
   <si>
     <t>description</t>
   </si>
@@ -1843,7 +1843,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="395" x14ac:knownFonts="1">
+  <fonts count="411" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4344,8 +4344,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="670">
+  <fills count="697">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8138,8 +8239,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="739">
+  <borders count="771">
     <border>
       <left/>
       <right/>
@@ -15649,6 +15903,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15656,7 +16236,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="438">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16893,52 +17473,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="645" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="645" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="648" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="648" fontId="381" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="651" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="651" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="654" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="654" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="660" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="660" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="651" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="651" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="663" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="663" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="663" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="663" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="672" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="675" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="678" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="681" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="687" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="678" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="690" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="690" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14314" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15446" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1836,6 +1836,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1846,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="411" x14ac:knownFonts="1">
+  <fonts count="443" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4445,8 +4448,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="697">
+  <fills count="751">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8392,8 +8597,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="771">
+  <borders count="835">
     <border>
       <left/>
       <right/>
@@ -16229,6 +16740,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16236,7 +17399,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="470">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17521,52 +18684,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="672" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="672" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="675" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="675" fontId="397" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="678" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="678" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="681" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="681" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="687" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="687" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="678" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="678" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="690" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="690" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="690" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="690" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="699" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="702" fontId="413" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="705" fontId="414" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="708" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="417" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="714" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="705" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="717" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="717" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="726" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="729" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="732" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="735" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="741" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="732" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="744" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="744" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17921,7 +19180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19631,7 +20890,7 @@
         <v>267</v>
       </c>
       <c r="Z89" t="s">
-        <v>196</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90">
@@ -19639,7 +20898,7 @@
         <v>284</v>
       </c>
       <c r="Z90" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -19647,7 +20906,7 @@
         <v>268</v>
       </c>
       <c r="Z91" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92">
@@ -19655,7 +20914,7 @@
         <v>269</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -19663,7 +20922,7 @@
         <v>301</v>
       </c>
       <c r="Z93" t="s">
-        <v>572</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
@@ -19671,7 +20930,7 @@
         <v>307</v>
       </c>
       <c r="Z94" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95">
@@ -19679,7 +20938,7 @@
         <v>291</v>
       </c>
       <c r="Z95" t="s">
-        <v>211</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96">
@@ -19687,7 +20946,7 @@
         <v>336</v>
       </c>
       <c r="Z96" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
@@ -19695,7 +20954,7 @@
         <v>273</v>
       </c>
       <c r="Z97" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
@@ -19703,201 +20962,206 @@
         <v>274</v>
       </c>
       <c r="Z98" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>585</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>439</v>
+        <v>586</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>528</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>145</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>532</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>379</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>159</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>569</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15446" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16012" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1846,7 +1846,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="443" x14ac:knownFonts="1">
+  <fonts count="459" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4650,8 +4650,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="751">
+  <fills count="778">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8903,8 +9004,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="835">
+  <borders count="867">
     <border>
       <left/>
       <right/>
@@ -17392,6 +17646,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17399,7 +17979,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="470">
+  <cellXfs count="486">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18780,52 +19360,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="726" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="726" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="729" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="729" fontId="429" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="732" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="732" fontId="430" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="735" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="735" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="433" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="741" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="741" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="732" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="732" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="744" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="744" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="744" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="744" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="753" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="756" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="759" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="762" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="768" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="759" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="771" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="771" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -38,7 +38,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -46,9 +46,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16012" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16588" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1839,6 +1839,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1876,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="459" x14ac:knownFonts="1">
+  <fonts count="475" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4751,8 +4781,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="778">
+  <fills count="805">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9157,8 +9288,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="867">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -17972,6 +18256,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17979,7 +18589,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="502">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19408,52 +20018,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="753" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="753" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="756" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="756" fontId="445" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="759" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="759" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="762" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="762" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="768" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="768" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="759" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="759" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="771" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="771" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="771" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="771" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="777" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="780" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="783" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="786" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="789" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="795" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="786" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="798" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="798" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="789" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="789" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="804" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19808,7 +20466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20240,7 +20898,7 @@
         <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>596</v>
       </c>
       <c r="AC5" t="s">
         <v>181</v>
@@ -20311,7 +20969,7 @@
         <v>441</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
         <v>182</v>
@@ -20373,7 +21031,7 @@
         <v>442</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
         <v>183</v>
@@ -20429,7 +21087,7 @@
         <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
         <v>184</v>
@@ -20481,6 +21139,9 @@
       <c r="Z9" t="s">
         <v>205</v>
       </c>
+      <c r="AB9" t="s">
+        <v>178</v>
+      </c>
       <c r="AC9" t="s">
         <v>185</v>
       </c>
@@ -20499,7 +21160,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>448</v>
+        <v>588</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -20521,6 +21182,9 @@
       </c>
       <c r="Z10" t="s">
         <v>253</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>597</v>
       </c>
       <c r="AC10" t="s">
         <v>186</v>
@@ -20540,7 +21204,7 @@
         <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -20578,7 +21242,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L12" t="s">
         <v>526</v>
@@ -20616,7 +21280,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
         <v>386</v>
@@ -20628,7 +21292,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>250</v>
+        <v>589</v>
       </c>
       <c r="Z13" t="s">
         <v>322</v>
@@ -20651,7 +21315,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -20663,7 +21327,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z14" t="s">
         <v>100</v>
@@ -20685,6 +21349,9 @@
       <c r="H15" t="s">
         <v>260</v>
       </c>
+      <c r="I15" t="s">
+        <v>321</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -20695,10 +21362,10 @@
         <v>496</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z15" t="s">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="AC15" t="s">
         <v>190</v>
@@ -20727,10 +21394,10 @@
         <v>497</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AC16" t="s">
         <v>191</v>
@@ -20755,8 +21422,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>248</v>
+      </c>
       <c r="Z17" t="s">
-        <v>498</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s">
         <v>463</v>
@@ -20782,7 +21452,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>102</v>
+        <v>498</v>
       </c>
       <c r="AE18" t="s">
         <v>471</v>
@@ -20802,7 +21472,7 @@
         <v>459</v>
       </c>
       <c r="Z19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE19" t="s">
         <v>490</v>
@@ -20822,7 +21492,7 @@
         <v>81</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE20" t="s">
         <v>491</v>
@@ -20842,7 +21512,7 @@
         <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE21" t="s">
         <v>495</v>
@@ -20862,7 +21532,7 @@
         <v>581</v>
       </c>
       <c r="Z22" t="s">
-        <v>483</v>
+        <v>105</v>
       </c>
       <c r="AE22" t="s">
         <v>231</v>
@@ -20882,7 +21552,7 @@
         <v>466</v>
       </c>
       <c r="Z23" t="s">
-        <v>106</v>
+        <v>483</v>
       </c>
       <c r="AE23" t="s">
         <v>558</v>
@@ -20902,7 +21572,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>567</v>
+        <v>106</v>
       </c>
       <c r="AE24" t="s">
         <v>559</v>
@@ -20922,7 +21592,7 @@
         <v>388</v>
       </c>
       <c r="Z25" t="s">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="AE25" t="s">
         <v>560</v>
@@ -20942,7 +21612,7 @@
         <v>545</v>
       </c>
       <c r="Z26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE26" t="s">
         <v>232</v>
@@ -20962,7 +21632,7 @@
         <v>83</v>
       </c>
       <c r="Z27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE27" t="s">
         <v>233</v>
@@ -20982,7 +21652,7 @@
         <v>430</v>
       </c>
       <c r="Z28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -20999,7 +21669,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -21016,7 +21686,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
@@ -21030,7 +21700,7 @@
         <v>212</v>
       </c>
       <c r="Z31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -21041,7 +21711,7 @@
         <v>271</v>
       </c>
       <c r="Z32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -21052,7 +21722,7 @@
         <v>281</v>
       </c>
       <c r="Z33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -21063,7 +21733,7 @@
         <v>529</v>
       </c>
       <c r="Z34" t="s">
-        <v>568</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -21074,7 +21744,7 @@
         <v>256</v>
       </c>
       <c r="Z35" t="s">
-        <v>115</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36">
@@ -21085,7 +21755,7 @@
         <v>326</v>
       </c>
       <c r="Z36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -21096,7 +21766,7 @@
         <v>303</v>
       </c>
       <c r="Z37" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -21107,7 +21777,7 @@
         <v>257</v>
       </c>
       <c r="Z38" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -21118,7 +21788,7 @@
         <v>304</v>
       </c>
       <c r="Z39" t="s">
-        <v>334</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -21126,7 +21796,7 @@
         <v>263</v>
       </c>
       <c r="Z40" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
@@ -21134,7 +21804,7 @@
         <v>76</v>
       </c>
       <c r="Z41" t="s">
-        <v>578</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42">
@@ -21142,7 +21812,7 @@
         <v>208</v>
       </c>
       <c r="Z42" t="s">
-        <v>389</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43">
@@ -21150,7 +21820,7 @@
         <v>564</v>
       </c>
       <c r="Z43" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
@@ -21158,7 +21828,7 @@
         <v>285</v>
       </c>
       <c r="Z44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -21166,7 +21836,7 @@
         <v>296</v>
       </c>
       <c r="Z45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -21174,7 +21844,7 @@
         <v>297</v>
       </c>
       <c r="Z46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -21182,7 +21852,7 @@
         <v>339</v>
       </c>
       <c r="Z47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -21190,7 +21860,7 @@
         <v>338</v>
       </c>
       <c r="Z48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -21198,7 +21868,7 @@
         <v>207</v>
       </c>
       <c r="Z49" t="s">
-        <v>435</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -21206,7 +21876,7 @@
         <v>316</v>
       </c>
       <c r="Z50" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
@@ -21214,7 +21884,7 @@
         <v>335</v>
       </c>
       <c r="Z51" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -21222,7 +21892,7 @@
         <v>364</v>
       </c>
       <c r="Z52" t="s">
-        <v>554</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -21230,7 +21900,7 @@
         <v>298</v>
       </c>
       <c r="Z53" t="s">
-        <v>124</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54">
@@ -21238,7 +21908,7 @@
         <v>352</v>
       </c>
       <c r="Z54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -21246,7 +21916,7 @@
         <v>327</v>
       </c>
       <c r="Z55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -21254,7 +21924,7 @@
         <v>264</v>
       </c>
       <c r="Z56" t="s">
-        <v>484</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -21262,7 +21932,7 @@
         <v>288</v>
       </c>
       <c r="Z57" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
@@ -21270,7 +21940,7 @@
         <v>289</v>
       </c>
       <c r="Z58" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59">
@@ -21278,7 +21948,7 @@
         <v>565</v>
       </c>
       <c r="Z59" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -21286,7 +21956,7 @@
         <v>290</v>
       </c>
       <c r="Z60" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61">
@@ -21294,7 +21964,7 @@
         <v>299</v>
       </c>
       <c r="Z61" t="s">
-        <v>128</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62">
@@ -21302,7 +21972,7 @@
         <v>308</v>
       </c>
       <c r="Z62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -21310,7 +21980,7 @@
         <v>333</v>
       </c>
       <c r="Z63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -21318,7 +21988,7 @@
         <v>305</v>
       </c>
       <c r="Z64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -21326,7 +21996,7 @@
         <v>306</v>
       </c>
       <c r="Z65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -21334,7 +22004,7 @@
         <v>365</v>
       </c>
       <c r="Z66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -21342,7 +22012,7 @@
         <v>366</v>
       </c>
       <c r="Z67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -21350,7 +22020,7 @@
         <v>341</v>
       </c>
       <c r="Z68" t="s">
-        <v>436</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -21358,7 +22028,7 @@
         <v>309</v>
       </c>
       <c r="Z69" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70">
@@ -21366,7 +22036,7 @@
         <v>265</v>
       </c>
       <c r="Z70" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71">
@@ -21374,7 +22044,7 @@
         <v>550</v>
       </c>
       <c r="Z71" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -21382,7 +22052,7 @@
         <v>310</v>
       </c>
       <c r="Z72" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73">
@@ -21390,7 +22060,7 @@
         <v>406</v>
       </c>
       <c r="Z73" t="s">
-        <v>135</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74">
@@ -21398,7 +22068,7 @@
         <v>300</v>
       </c>
       <c r="Z74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -21406,7 +22076,7 @@
         <v>407</v>
       </c>
       <c r="Z75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -21414,7 +22084,7 @@
         <v>258</v>
       </c>
       <c r="Z76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -21422,7 +22092,7 @@
         <v>530</v>
       </c>
       <c r="Z77" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -21430,7 +22100,7 @@
         <v>340</v>
       </c>
       <c r="Z78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -21438,7 +22108,7 @@
         <v>276</v>
       </c>
       <c r="Z79" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -21446,7 +22116,7 @@
         <v>282</v>
       </c>
       <c r="Z80" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81">
@@ -21454,7 +22124,7 @@
         <v>287</v>
       </c>
       <c r="Z81" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82">
@@ -21462,7 +22132,7 @@
         <v>425</v>
       </c>
       <c r="Z82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -21470,7 +22140,7 @@
         <v>328</v>
       </c>
       <c r="Z83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -21478,7 +22148,7 @@
         <v>266</v>
       </c>
       <c r="Z84" t="s">
-        <v>492</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
@@ -21486,7 +22156,7 @@
         <v>277</v>
       </c>
       <c r="Z85" t="s">
-        <v>142</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86">
@@ -21494,7 +22164,7 @@
         <v>283</v>
       </c>
       <c r="Z86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
@@ -21502,7 +22172,7 @@
         <v>272</v>
       </c>
       <c r="Z87" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -21510,7 +22180,7 @@
         <v>551</v>
       </c>
       <c r="Z88" t="s">
-        <v>485</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -21518,7 +22188,7 @@
         <v>267</v>
       </c>
       <c r="Z89" t="s">
-        <v>587</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90">
@@ -21526,7 +22196,7 @@
         <v>284</v>
       </c>
       <c r="Z90" t="s">
-        <v>196</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91">
@@ -21534,7 +22204,7 @@
         <v>268</v>
       </c>
       <c r="Z91" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -21542,7 +22212,7 @@
         <v>269</v>
       </c>
       <c r="Z92" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93">
@@ -21550,7 +22220,7 @@
         <v>301</v>
       </c>
       <c r="Z93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
@@ -21558,7 +22228,7 @@
         <v>307</v>
       </c>
       <c r="Z94" t="s">
-        <v>572</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -21566,7 +22236,7 @@
         <v>291</v>
       </c>
       <c r="Z95" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="96">
@@ -21574,7 +22244,7 @@
         <v>336</v>
       </c>
       <c r="Z96" t="s">
-        <v>211</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97">
@@ -21582,7 +22252,7 @@
         <v>273</v>
       </c>
       <c r="Z97" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
@@ -21590,206 +22260,236 @@
         <v>274</v>
       </c>
       <c r="Z98" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>585</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>439</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>579</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>145</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>592</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>593</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>440</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>159</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>569</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>162</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>163</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16588" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17165" uniqueCount="600">
   <si>
     <t>description</t>
   </si>
@@ -1869,6 +1869,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1882,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="475" x14ac:knownFonts="1">
+  <fonts count="491" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4882,8 +4888,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="805">
+  <fills count="832">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9441,8 +9548,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="931">
     <border>
       <left/>
       <right/>
@@ -18582,6 +18842,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18589,7 +19175,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="502">
+  <cellXfs count="518">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20066,52 +20652,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="777" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="780" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="780" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="783" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="783" fontId="461" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="786" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="786" fontId="462" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="789" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="789" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="465" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="795" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="795" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="786" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="786" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="798" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="798" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="798" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="798" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="789" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="789" fontId="471" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="789" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="789" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="804" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="804" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="807" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="810" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="813" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="816" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="822" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="813" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="825" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="825" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21160,7 +21794,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -21204,7 +21838,7 @@
         <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>448</v>
+        <v>599</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -21242,7 +21876,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="L12" t="s">
         <v>526</v>
@@ -21280,7 +21914,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L13" t="s">
         <v>386</v>
@@ -21315,7 +21949,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -21350,7 +21984,7 @@
         <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -21383,6 +22017,9 @@
       </c>
       <c r="H16" t="s">
         <v>261</v>
+      </c>
+      <c r="I16" t="s">
+        <v>321</v>
       </c>
       <c r="L16" t="s">
         <v>527</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -28,7 +28,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -45,16 +45,17 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17165" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18335" uniqueCount="609">
   <si>
     <t>description</t>
   </si>
@@ -1875,6 +1876,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1910,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="491" x14ac:knownFonts="1">
+  <fonts count="523" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4989,8 +5017,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="832">
+  <fills count="886">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9701,8 +9931,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="931">
+  <borders count="995">
     <border>
       <left/>
       <right/>
@@ -19168,6 +19704,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19175,7 +20363,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="518">
+  <cellXfs count="550">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20700,52 +21888,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="804" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="807" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="807" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="810" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="810" fontId="477" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="813" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="813" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="816" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="816" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="481" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="822" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="822" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="813" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="813" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="825" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="825" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="825" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="825" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="816" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="816" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="831" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="834" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="837" fontId="493" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="840" fontId="494" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="843" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="497" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="849" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="840" fontId="500" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="852" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="852" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="858" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="861" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="864" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="867" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="870" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="876" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="867" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="879" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="879" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21100,7 +22384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21188,21 +22472,24 @@
         <v>393</v>
       </c>
       <c r="Z1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>410</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -21238,7 +22525,7 @@
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>457</v>
+        <v>607</v>
       </c>
       <c r="L2" t="s">
         <v>311</v>
@@ -21283,21 +22570,24 @@
         <v>403</v>
       </c>
       <c r="Z2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>179</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>428</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -21369,21 +22659,24 @@
         <v>404</v>
       </c>
       <c r="Z3" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA3" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>360</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>180</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -21452,21 +22745,24 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA4" t="s">
         <v>584</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>180</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>420</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -21526,21 +22822,24 @@
         <v>355</v>
       </c>
       <c r="Z5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA5" t="s">
         <v>577</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>596</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>181</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>421</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -21570,7 +22869,7 @@
         <v>582</v>
       </c>
       <c r="K6" t="s">
-        <v>344</v>
+        <v>608</v>
       </c>
       <c r="L6" t="s">
         <v>458</v>
@@ -21597,21 +22896,24 @@
         <v>357</v>
       </c>
       <c r="Z6" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA6" t="s">
         <v>96</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>441</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>422</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -21632,7 +22934,7 @@
         <v>443</v>
       </c>
       <c r="K7" t="s">
-        <v>552</v>
+        <v>344</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -21658,22 +22960,22 @@
       <c r="X7" t="s">
         <v>356</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>442</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>183</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>423</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>555</v>
       </c>
     </row>
@@ -21693,6 +22995,9 @@
       <c r="I8" t="s">
         <v>324</v>
       </c>
+      <c r="K8" t="s">
+        <v>552</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -21714,22 +23019,22 @@
       <c r="X8" t="s">
         <v>358</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>98</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>184</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>424</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>556</v>
       </c>
     </row>
@@ -21770,16 +23075,16 @@
       <c r="X9" t="s">
         <v>359</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>557</v>
       </c>
     </row>
@@ -21814,16 +23119,16 @@
       <c r="U10" t="s">
         <v>402</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>597</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -21855,13 +23160,13 @@
       <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -21893,13 +23198,13 @@
       <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -21928,13 +23233,13 @@
       <c r="S13" t="s">
         <v>589</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -21963,13 +23268,13 @@
       <c r="S14" t="s">
         <v>250</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>488</v>
       </c>
     </row>
@@ -21998,13 +23303,13 @@
       <c r="S15" t="s">
         <v>246</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>590</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>489</v>
       </c>
     </row>
@@ -22033,13 +23338,13 @@
       <c r="S16" t="s">
         <v>247</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>101</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -22062,13 +23367,13 @@
       <c r="S17" t="s">
         <v>248</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>73</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>463</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -22088,10 +23393,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>498</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -22108,10 +23413,10 @@
       <c r="L19" t="s">
         <v>459</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>102</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>490</v>
       </c>
     </row>
@@ -22128,10 +23433,10 @@
       <c r="L20" t="s">
         <v>81</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>491</v>
       </c>
     </row>
@@ -22148,10 +23453,10 @@
       <c r="L21" t="s">
         <v>82</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>495</v>
       </c>
     </row>
@@ -22168,10 +23473,10 @@
       <c r="L22" t="s">
         <v>581</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22188,10 +23493,10 @@
       <c r="L23" t="s">
         <v>466</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>483</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>558</v>
       </c>
     </row>
@@ -22208,10 +23513,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>106</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>559</v>
       </c>
     </row>
@@ -22228,16 +23533,16 @@
       <c r="L25" t="s">
         <v>388</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>567</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>600</v>
       </c>
       <c r="F26" t="s">
         <v>445</v>
@@ -22248,16 +23553,16 @@
       <c r="L26" t="s">
         <v>545</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>107</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
         <v>221</v>
@@ -22268,16 +23573,16 @@
       <c r="L27" t="s">
         <v>83</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>108</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>222</v>
@@ -22288,13 +23593,13 @@
       <c r="L28" t="s">
         <v>430</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>464</v>
@@ -22305,13 +23610,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
         <v>465</v>
@@ -22322,13 +23627,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>410</v>
       </c>
       <c r="F31" t="s">
         <v>412</v>
@@ -22336,18 +23641,21 @@
       <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
       <c r="F32" t="s">
         <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>112</v>
       </c>
     </row>
@@ -22358,7 +23666,7 @@
       <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
@@ -22369,7 +23677,7 @@
       <c r="H34" t="s">
         <v>529</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -22380,7 +23688,7 @@
       <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22391,7 +23699,7 @@
       <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>115</v>
       </c>
     </row>
@@ -22402,7 +23710,7 @@
       <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>116</v>
       </c>
     </row>
@@ -22413,7 +23721,7 @@
       <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -22424,7 +23732,7 @@
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>117</v>
       </c>
     </row>
@@ -22432,7 +23740,7 @@
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>334</v>
       </c>
     </row>
@@ -22440,7 +23748,7 @@
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>434</v>
       </c>
     </row>
@@ -22448,7 +23756,7 @@
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>578</v>
       </c>
     </row>
@@ -22456,7 +23764,7 @@
       <c r="H43" t="s">
         <v>564</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>389</v>
       </c>
     </row>
@@ -22464,7 +23772,7 @@
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -22472,7 +23780,7 @@
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -22480,7 +23788,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -22488,7 +23796,7 @@
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -22496,7 +23804,7 @@
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -22504,7 +23812,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22512,7 +23820,7 @@
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>435</v>
       </c>
     </row>
@@ -22520,7 +23828,7 @@
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>209</v>
       </c>
     </row>
@@ -22528,7 +23836,7 @@
       <c r="H52" t="s">
         <v>364</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -22536,7 +23844,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>554</v>
       </c>
     </row>
@@ -22544,7 +23852,7 @@
       <c r="H54" t="s">
         <v>352</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>124</v>
       </c>
     </row>
@@ -22552,7 +23860,7 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22560,7 +23868,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -22568,7 +23876,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>484</v>
       </c>
     </row>
@@ -22576,7 +23884,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -22584,7 +23892,7 @@
       <c r="H59" t="s">
         <v>565</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>127</v>
       </c>
     </row>
@@ -22592,7 +23900,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>342</v>
       </c>
     </row>
@@ -22600,7 +23908,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>461</v>
       </c>
     </row>
@@ -22608,7 +23916,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>128</v>
       </c>
     </row>
@@ -22616,7 +23924,7 @@
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -22624,7 +23932,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -22632,7 +23940,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -22640,7 +23948,7 @@
       <c r="H66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -22648,7 +23956,7 @@
       <c r="H67" t="s">
         <v>366</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -22656,7 +23964,7 @@
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -22664,7 +23972,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>436</v>
       </c>
     </row>
@@ -22672,7 +23980,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>469</v>
       </c>
     </row>
@@ -22680,7 +23988,7 @@
       <c r="H71" t="s">
         <v>550</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>210</v>
       </c>
     </row>
@@ -22688,7 +23996,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>385</v>
       </c>
     </row>
@@ -22696,7 +24004,7 @@
       <c r="H73" t="s">
         <v>406</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>437</v>
       </c>
     </row>
@@ -22704,7 +24012,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -22712,7 +24020,7 @@
       <c r="H75" t="s">
         <v>407</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22720,7 +24028,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -22728,7 +24036,7 @@
       <c r="H77" t="s">
         <v>530</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -22736,7 +24044,7 @@
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>193</v>
       </c>
     </row>
@@ -22744,7 +24052,7 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>194</v>
       </c>
     </row>
@@ -22752,7 +24060,7 @@
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>449</v>
       </c>
     </row>
@@ -22760,7 +24068,7 @@
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>462</v>
       </c>
     </row>
@@ -22768,7 +24076,7 @@
       <c r="H82" t="s">
         <v>425</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -22776,7 +24084,7 @@
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>140</v>
       </c>
     </row>
@@ -22784,7 +24092,7 @@
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -22792,7 +24100,7 @@
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>492</v>
       </c>
     </row>
@@ -22800,7 +24108,7 @@
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>142</v>
       </c>
     </row>
@@ -22808,7 +24116,7 @@
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>143</v>
       </c>
     </row>
@@ -22816,7 +24124,7 @@
       <c r="H88" t="s">
         <v>551</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>195</v>
       </c>
     </row>
@@ -22824,7 +24132,7 @@
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>485</v>
       </c>
     </row>
@@ -22832,7 +24140,7 @@
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>587</v>
       </c>
     </row>
@@ -22840,7 +24148,7 @@
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>196</v>
       </c>
     </row>
@@ -22848,7 +24156,7 @@
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>450</v>
       </c>
     </row>
@@ -22856,7 +24164,7 @@
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -22864,7 +24172,7 @@
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>198</v>
       </c>
     </row>
@@ -22872,7 +24180,7 @@
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>572</v>
       </c>
     </row>
@@ -22880,7 +24188,7 @@
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>573</v>
       </c>
     </row>
@@ -22888,7 +24196,7 @@
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>211</v>
       </c>
     </row>
@@ -22896,237 +24204,237 @@
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -39,23 +39,24 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18335" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18922" uniqueCount="619">
   <si>
     <t>description</t>
   </si>
@@ -1903,6 +1904,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +1941,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="523" x14ac:knownFonts="1">
+  <fonts count="539" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5219,8 +5250,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="886">
+  <fills count="913">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10237,8 +10369,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="995">
+  <borders count="1027">
     <border>
       <left/>
       <right/>
@@ -20356,6 +20641,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20363,7 +20974,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="550">
+  <cellXfs count="566">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21984,52 +22595,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="858" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="861" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="861" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="864" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="864" fontId="509" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="867" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="867" fontId="510" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="870" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="870" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="513" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="876" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="876" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="867" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="867" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="879" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="879" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="879" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="879" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="888" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="891" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="894" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="897" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="903" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="894" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="906" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="906" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22384,7 +23043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22472,7 +23131,7 @@
         <v>393</v>
       </c>
       <c r="Z1" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="AA1" t="s">
         <v>52</v>
@@ -22552,7 +23211,7 @@
         <v>249</v>
       </c>
       <c r="T2" t="s">
-        <v>213</v>
+        <v>611</v>
       </c>
       <c r="U2" t="s">
         <v>394</v>
@@ -22570,7 +23229,7 @@
         <v>403</v>
       </c>
       <c r="Z2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="AA2" t="s">
         <v>94</v>
@@ -22644,7 +23303,7 @@
         <v>236</v>
       </c>
       <c r="T3" t="s">
-        <v>214</v>
+        <v>612</v>
       </c>
       <c r="U3" t="s">
         <v>395</v>
@@ -22659,7 +23318,7 @@
         <v>404</v>
       </c>
       <c r="Z3" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="AA3" t="s">
         <v>95</v>
@@ -22730,7 +23389,7 @@
         <v>237</v>
       </c>
       <c r="T4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U4" t="s">
         <v>396</v>
@@ -22745,7 +23404,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="AA4" t="s">
         <v>584</v>
@@ -22810,7 +23469,7 @@
         <v>238</v>
       </c>
       <c r="T5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U5" t="s">
         <v>397</v>
@@ -22820,9 +23479,6 @@
       </c>
       <c r="X5" t="s">
         <v>355</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>605</v>
       </c>
       <c r="AA5" t="s">
         <v>577</v>
@@ -22887,16 +23543,13 @@
         <v>239</v>
       </c>
       <c r="T6" t="s">
-        <v>387</v>
+        <v>215</v>
       </c>
       <c r="U6" t="s">
         <v>398</v>
       </c>
       <c r="X6" t="s">
         <v>357</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>606</v>
       </c>
       <c r="AA6" t="s">
         <v>96</v>
@@ -22952,7 +23605,7 @@
         <v>240</v>
       </c>
       <c r="T7" t="s">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="U7" t="s">
         <v>399</v>
@@ -23013,6 +23666,9 @@
       <c r="S8" t="s">
         <v>241</v>
       </c>
+      <c r="T8" t="s">
+        <v>387</v>
+      </c>
       <c r="U8" t="s">
         <v>400</v>
       </c>
@@ -23069,6 +23725,9 @@
       <c r="S9" t="s">
         <v>242</v>
       </c>
+      <c r="T9" t="s">
+        <v>414</v>
+      </c>
       <c r="U9" t="s">
         <v>401</v>
       </c>
@@ -23190,7 +23849,7 @@
         <v>553</v>
       </c>
       <c r="O12" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -23227,6 +23886,9 @@
       <c r="N13" t="s">
         <v>432</v>
       </c>
+      <c r="O13" t="s">
+        <v>539</v>
+      </c>
       <c r="R13" t="s">
         <v>92</v>
       </c>
@@ -23304,7 +23966,7 @@
         <v>246</v>
       </c>
       <c r="AA15" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="AD15" t="s">
         <v>190</v>
@@ -23339,7 +24001,7 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="AD16" t="s">
         <v>191</v>
@@ -23368,7 +24030,7 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="s">
         <v>463</v>
@@ -23394,7 +24056,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>498</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s">
         <v>471</v>
@@ -23414,7 +24076,7 @@
         <v>459</v>
       </c>
       <c r="AA19" t="s">
-        <v>102</v>
+        <v>498</v>
       </c>
       <c r="AF19" t="s">
         <v>490</v>
@@ -23434,7 +24096,7 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s">
         <v>491</v>
@@ -23454,7 +24116,7 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s">
         <v>495</v>
@@ -23474,7 +24136,7 @@
         <v>581</v>
       </c>
       <c r="AA22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s">
         <v>231</v>
@@ -23494,7 +24156,7 @@
         <v>466</v>
       </c>
       <c r="AA23" t="s">
-        <v>483</v>
+        <v>105</v>
       </c>
       <c r="AF23" t="s">
         <v>558</v>
@@ -23514,7 +24176,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>106</v>
+        <v>483</v>
       </c>
       <c r="AF24" t="s">
         <v>559</v>
@@ -23534,7 +24196,7 @@
         <v>388</v>
       </c>
       <c r="AA25" t="s">
-        <v>567</v>
+        <v>106</v>
       </c>
       <c r="AF25" t="s">
         <v>560</v>
@@ -23542,7 +24204,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="F26" t="s">
         <v>445</v>
@@ -23554,7 +24216,7 @@
         <v>545</v>
       </c>
       <c r="AA26" t="s">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="AF26" t="s">
         <v>232</v>
@@ -23574,7 +24236,7 @@
         <v>83</v>
       </c>
       <c r="AA27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF27" t="s">
         <v>233</v>
@@ -23594,7 +24256,7 @@
         <v>430</v>
       </c>
       <c r="AA28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -23611,7 +24273,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -23628,7 +24290,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -23642,7 +24304,7 @@
         <v>212</v>
       </c>
       <c r="AA31" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
@@ -23656,7 +24318,7 @@
         <v>271</v>
       </c>
       <c r="AA32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -23667,7 +24329,7 @@
         <v>281</v>
       </c>
       <c r="AA33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -23678,7 +24340,7 @@
         <v>529</v>
       </c>
       <c r="AA34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -23689,7 +24351,7 @@
         <v>256</v>
       </c>
       <c r="AA35" t="s">
-        <v>568</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -23700,7 +24362,7 @@
         <v>326</v>
       </c>
       <c r="AA36" t="s">
-        <v>115</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37">
@@ -23711,7 +24373,7 @@
         <v>303</v>
       </c>
       <c r="AA37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -23722,7 +24384,7 @@
         <v>257</v>
       </c>
       <c r="AA38" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -23733,7 +24395,7 @@
         <v>304</v>
       </c>
       <c r="AA39" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
@@ -23741,7 +24403,7 @@
         <v>263</v>
       </c>
       <c r="AA40" t="s">
-        <v>334</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -23749,7 +24411,7 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
@@ -23757,7 +24419,7 @@
         <v>208</v>
       </c>
       <c r="AA42" t="s">
-        <v>578</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43">
@@ -23765,7 +24427,7 @@
         <v>564</v>
       </c>
       <c r="AA43" t="s">
-        <v>389</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44">
@@ -23773,7 +24435,7 @@
         <v>285</v>
       </c>
       <c r="AA44" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
@@ -23781,7 +24443,7 @@
         <v>296</v>
       </c>
       <c r="AA45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -23789,7 +24451,7 @@
         <v>297</v>
       </c>
       <c r="AA46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -23797,7 +24459,7 @@
         <v>339</v>
       </c>
       <c r="AA47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -23805,7 +24467,7 @@
         <v>338</v>
       </c>
       <c r="AA48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -23813,7 +24475,7 @@
         <v>207</v>
       </c>
       <c r="AA49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -23821,7 +24483,7 @@
         <v>316</v>
       </c>
       <c r="AA50" t="s">
-        <v>435</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -23829,7 +24491,7 @@
         <v>335</v>
       </c>
       <c r="AA51" t="s">
-        <v>209</v>
+        <v>617</v>
       </c>
     </row>
     <row r="52">
@@ -23837,7 +24499,7 @@
         <v>364</v>
       </c>
       <c r="AA52" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53">
@@ -23845,7 +24507,7 @@
         <v>298</v>
       </c>
       <c r="AA53" t="s">
-        <v>554</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -23853,7 +24515,7 @@
         <v>352</v>
       </c>
       <c r="AA54" t="s">
-        <v>124</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55">
@@ -23861,7 +24523,7 @@
         <v>327</v>
       </c>
       <c r="AA55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -23869,7 +24531,7 @@
         <v>264</v>
       </c>
       <c r="AA56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -23877,7 +24539,7 @@
         <v>288</v>
       </c>
       <c r="AA57" t="s">
-        <v>484</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -23885,7 +24547,7 @@
         <v>289</v>
       </c>
       <c r="AA58" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59">
@@ -23893,7 +24555,7 @@
         <v>565</v>
       </c>
       <c r="AA59" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60">
@@ -23901,7 +24563,7 @@
         <v>290</v>
       </c>
       <c r="AA60" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -23909,7 +24571,7 @@
         <v>299</v>
       </c>
       <c r="AA61" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62">
@@ -23917,7 +24579,7 @@
         <v>308</v>
       </c>
       <c r="AA62" t="s">
-        <v>128</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63">
@@ -23925,7 +24587,7 @@
         <v>333</v>
       </c>
       <c r="AA63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -23933,7 +24595,7 @@
         <v>305</v>
       </c>
       <c r="AA64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -23941,7 +24603,7 @@
         <v>306</v>
       </c>
       <c r="AA65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -23949,7 +24611,7 @@
         <v>365</v>
       </c>
       <c r="AA66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -23957,7 +24619,7 @@
         <v>366</v>
       </c>
       <c r="AA67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -23965,7 +24627,7 @@
         <v>341</v>
       </c>
       <c r="AA68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -23973,7 +24635,7 @@
         <v>309</v>
       </c>
       <c r="AA69" t="s">
-        <v>436</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -23981,7 +24643,7 @@
         <v>265</v>
       </c>
       <c r="AA70" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71">
@@ -23989,7 +24651,7 @@
         <v>550</v>
       </c>
       <c r="AA71" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72">
@@ -23997,7 +24659,7 @@
         <v>310</v>
       </c>
       <c r="AA72" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73">
@@ -24005,7 +24667,7 @@
         <v>406</v>
       </c>
       <c r="AA73" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74">
@@ -24013,7 +24675,7 @@
         <v>300</v>
       </c>
       <c r="AA74" t="s">
-        <v>135</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75">
@@ -24021,7 +24683,7 @@
         <v>407</v>
       </c>
       <c r="AA75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -24029,7 +24691,7 @@
         <v>258</v>
       </c>
       <c r="AA76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -24037,7 +24699,7 @@
         <v>530</v>
       </c>
       <c r="AA77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -24045,7 +24707,7 @@
         <v>340</v>
       </c>
       <c r="AA78" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -24053,7 +24715,7 @@
         <v>276</v>
       </c>
       <c r="AA79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -24061,7 +24723,7 @@
         <v>282</v>
       </c>
       <c r="AA80" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -24069,7 +24731,7 @@
         <v>287</v>
       </c>
       <c r="AA81" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82">
@@ -24077,7 +24739,7 @@
         <v>425</v>
       </c>
       <c r="AA82" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83">
@@ -24085,7 +24747,7 @@
         <v>328</v>
       </c>
       <c r="AA83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -24093,7 +24755,7 @@
         <v>266</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -24101,7 +24763,7 @@
         <v>277</v>
       </c>
       <c r="AA85" t="s">
-        <v>492</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
@@ -24109,7 +24771,7 @@
         <v>283</v>
       </c>
       <c r="AA86" t="s">
-        <v>142</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87">
@@ -24117,7 +24779,7 @@
         <v>272</v>
       </c>
       <c r="AA87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
@@ -24125,7 +24787,7 @@
         <v>551</v>
       </c>
       <c r="AA88" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
@@ -24133,7 +24795,7 @@
         <v>267</v>
       </c>
       <c r="AA89" t="s">
-        <v>485</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
@@ -24141,7 +24803,7 @@
         <v>284</v>
       </c>
       <c r="AA90" t="s">
-        <v>587</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91">
@@ -24149,7 +24811,7 @@
         <v>268</v>
       </c>
       <c r="AA91" t="s">
-        <v>196</v>
+        <v>587</v>
       </c>
     </row>
     <row r="92">
@@ -24157,7 +24819,7 @@
         <v>269</v>
       </c>
       <c r="AA92" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
@@ -24165,7 +24827,7 @@
         <v>301</v>
       </c>
       <c r="AA93" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94">
@@ -24173,7 +24835,7 @@
         <v>307</v>
       </c>
       <c r="AA94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
@@ -24181,7 +24843,7 @@
         <v>291</v>
       </c>
       <c r="AA95" t="s">
-        <v>572</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
@@ -24189,7 +24851,7 @@
         <v>336</v>
       </c>
       <c r="AA96" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="97">
@@ -24197,7 +24859,7 @@
         <v>273</v>
       </c>
       <c r="AA97" t="s">
-        <v>211</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98">
@@ -24205,236 +24867,241 @@
         <v>274</v>
       </c>
       <c r="AA98" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>585</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>439</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>591</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>204</v>
+        <v>591</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>528</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>145</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>532</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>379</v>
+        <v>532</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>592</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>592</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>593</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>593</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>594</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>569</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>595</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>164</v>
+        <v>595</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9228A4-E02C-4B04-A353-365BD37FCD90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CA9228A4-E02C-4B04-A353-365BD37FCD90}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="basics" sheetId="2" r:id="rId2"/>
-    <sheet name="xpath" sheetId="5" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="basics" r:id="rId2" sheetId="2"/>
+    <sheet name="xpath" r:id="rId3" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -30,7 +30,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -40,7 +40,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -48,15 +48,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="664">
   <si>
     <t>description</t>
   </si>
@@ -2062,12 +2062,172 @@
  content(${soap_xml_test4_xpath2a})
 ]</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2151,8 +2311,222 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2169,6 +2543,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2212,150 +2858,252 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="72">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2419,7 +3167,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2444,10 +3192,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2482,7 +3230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2517,7 +3265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2611,21 +3359,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2642,7 +3390,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2694,26 +3442,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2793,25 +3541,28 @@
         <v>587</v>
       </c>
       <c r="AA1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>405</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -2891,25 +3642,28 @@
         <v>591</v>
       </c>
       <c r="AA2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>423</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>444</v>
       </c>
@@ -2980,25 +3734,28 @@
         <v>592</v>
       </c>
       <c r="AA3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>356</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>464</v>
       </c>
@@ -3066,25 +3823,28 @@
         <v>593</v>
       </c>
       <c r="AA4" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB4" t="s">
         <v>570</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>415</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>561</v>
       </c>
@@ -3140,25 +3900,28 @@
         <v>351</v>
       </c>
       <c r="AA5" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB5" t="s">
         <v>564</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>581</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>416</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3211,25 +3974,28 @@
         <v>353</v>
       </c>
       <c r="AA6" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>434</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>417</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3273,25 +4039,28 @@
         <v>352</v>
       </c>
       <c r="AA7" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>435</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>418</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3335,25 +4104,28 @@
         <v>354</v>
       </c>
       <c r="AA8" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>419</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3394,19 +4166,22 @@
         <v>355</v>
       </c>
       <c r="AA9" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3438,19 +4213,22 @@
         <v>397</v>
       </c>
       <c r="AA10" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB10" t="s">
         <v>252</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>582</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>342</v>
       </c>
@@ -3476,19 +4254,22 @@
         <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>244</v>
+        <v>618</v>
       </c>
       <c r="AA11" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB11" t="s">
         <v>253</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3514,19 +4295,22 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA12" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -3552,19 +4336,22 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>574</v>
+        <v>245</v>
       </c>
       <c r="AA13" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB13" t="s">
         <v>321</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3587,19 +4374,22 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>250</v>
+        <v>574</v>
       </c>
       <c r="AA14" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>525</v>
       </c>
@@ -3622,19 +4412,22 @@
         <v>488</v>
       </c>
       <c r="S15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA15" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB15" t="s">
         <v>594</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>465</v>
       </c>
@@ -3657,19 +4450,22 @@
         <v>489</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA16" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB16" t="s">
         <v>575</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3686,19 +4482,22 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA17" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>455</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3714,19 +4513,25 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>248</v>
+      </c>
       <c r="AA18" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>612</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -3735,18 +4540,21 @@
         <v>451</v>
       </c>
       <c r="AA19" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB19" t="s">
         <v>490</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>613</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -3755,18 +4563,21 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -3775,18 +4586,21 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>551</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -3795,18 +4609,21 @@
         <v>567</v>
       </c>
       <c r="AA22" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -3815,18 +4632,21 @@
         <v>458</v>
       </c>
       <c r="AA23" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -3835,18 +4655,21 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB24" t="s">
         <v>475</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>615</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -3855,948 +4678,1041 @@
         <v>383</v>
       </c>
       <c r="AA25" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>438</v>
+        <v>551</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
       <c r="AA26" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB26" t="s">
         <v>555</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>611</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>536</v>
       </c>
       <c r="AA27" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="H28" t="s">
         <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>456</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
         <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AA29" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>407</v>
+        <v>221</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB31" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
       <c r="AA32" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>456</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
       </c>
       <c r="AA33" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="H34" t="s">
         <v>521</v>
       </c>
       <c r="AA34" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
       </c>
       <c r="AA35" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
         <v>325</v>
       </c>
       <c r="AA36" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB36" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
       </c>
       <c r="AA37" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>256</v>
       </c>
       <c r="AA38" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
         <v>552</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>616</v>
+      </c>
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>360</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>348</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>553</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>361</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>362</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>540</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>522</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="AA79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="AA80" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="AA81" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="AA82" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="AA83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="AA84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="AA85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="AA86" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="AA87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>541</v>
       </c>
-      <c r="AA88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="AA89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="AA90" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="AA91" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="AA92" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="AA93" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="AA94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="AA95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="AA96" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="AA97" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>663</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="16.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="41.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="42.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="49.375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="43.125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4827,7 +5743,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4846,7 +5762,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4863,7 +5779,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -4908,7 +5824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>491</v>
       </c>
@@ -4933,7 +5849,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4958,7 +5874,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4981,7 +5897,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -5006,7 +5922,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -5029,7 +5945,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>497</v>
       </c>
@@ -5058,7 +5974,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -5085,7 +6001,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -5110,7 +6026,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -5139,7 +6055,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -5156,7 +6072,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -5173,7 +6089,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -5190,7 +6106,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -5207,7 +6123,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -5224,7 +6140,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -5241,7 +6157,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -5258,7 +6174,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -5275,7 +6191,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -5292,7 +6208,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5309,7 +6225,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5326,7 +6242,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5343,7 +6259,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5360,7 +6276,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5377,7 +6293,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -5394,7 +6310,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5411,7 +6327,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5428,7 +6344,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5445,7 +6361,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5462,7 +6378,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5479,7 +6395,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5496,7 +6412,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5513,7 +6429,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5530,7 +6446,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5547,7 +6463,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5564,7 +6480,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5581,7 +6497,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5598,7 +6514,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5615,7 +6531,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5632,7 +6548,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5649,7 +6565,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5666,7 +6582,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5683,7 +6599,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5700,7 +6616,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5717,7 +6633,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5734,7 +6650,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5751,7 +6667,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5769,7 +6685,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5777,56 +6693,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9024936C-6A38-8B4E-B99F-650FF763EDD6}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9024936C-6A38-8B4E-B99F-650FF763EDD6}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="64.75" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="28.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="38.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="42.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="49.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="64.75" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -5857,7 +6773,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5876,7 +6792,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5893,7 +6809,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -5938,7 +6854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>506</v>
       </c>
@@ -5965,7 +6881,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -5990,7 +6906,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -6017,7 +6933,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -6046,7 +6962,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -6071,7 +6987,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -6100,7 +7016,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>514</v>
@@ -6131,7 +7047,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -6156,7 +7072,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>597</v>
       </c>
@@ -6185,7 +7101,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>603</v>
@@ -6212,7 +7128,8 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36.75" r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15"/>
       <c r="B15" s="5" t="s">
         <v>598</v>
       </c>
@@ -6240,7 +7157,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="79.5" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -6265,7 +7182,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
@@ -6290,7 +7207,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -6307,7 +7224,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -6324,7 +7241,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -6341,7 +7258,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -6358,7 +7275,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -6375,7 +7292,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -6392,7 +7309,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -6409,7 +7326,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -6426,7 +7343,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -6443,7 +7360,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -6460,7 +7377,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -6477,7 +7394,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -6494,7 +7411,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -6511,7 +7428,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -6528,7 +7445,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -6545,7 +7462,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="8"/>
       <c r="C33" s="13"/>
@@ -6562,7 +7479,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -6579,7 +7496,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -6596,7 +7513,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -6613,7 +7530,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -6630,7 +7547,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -6647,7 +7564,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -6664,7 +7581,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -6681,7 +7598,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -6698,7 +7615,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -6715,7 +7632,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -6732,7 +7649,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -6749,7 +7666,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -6766,7 +7683,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -6783,7 +7700,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -6800,7 +7717,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -6817,7 +7734,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6834,7 +7751,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6852,7 +7769,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -6860,25 +7777,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{24AA541F-F3A1-B745-B503-AAC652339207}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{24AA541F-F3A1-B745-B503-AAC652339207}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{44FD08B6-9FB9-0C4D-A542-D9E3549BB275}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{44FD08B6-9FB9-0C4D-A542-D9E3549BB275}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -22,13 +22,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -48,15 +48,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="666">
   <si>
     <t>description</t>
   </si>
@@ -2221,13 +2221,19 @@
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
   </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2525,8 +2531,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2543,6 +2656,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2863,7 +3112,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3047,55 +3296,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="35" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3450,7 +3750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3541,24 +3841,21 @@
         <v>587</v>
       </c>
       <c r="AA1" t="s">
-        <v>611</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="AF1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3591,7 +3888,7 @@
         <v>439</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>665</v>
       </c>
       <c r="K2" t="s">
         <v>585</v>
@@ -3642,24 +3939,21 @@
         <v>591</v>
       </c>
       <c r="AA2" t="s">
-        <v>619</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AC2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>423</v>
       </c>
       <c r="AF2" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG2" t="s">
         <v>479</v>
       </c>
     </row>
@@ -3689,7 +3983,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>470</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
         <v>344</v>
@@ -3734,24 +4028,21 @@
         <v>592</v>
       </c>
       <c r="AA3" t="s">
-        <v>620</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AC3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
+        <v>356</v>
       </c>
       <c r="AE3" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3778,7 +4069,7 @@
         <v>440</v>
       </c>
       <c r="J4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K4" t="s">
         <v>345</v>
@@ -3823,24 +4114,21 @@
         <v>593</v>
       </c>
       <c r="AA4" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="AB4" t="s">
-        <v>570</v>
+        <v>169</v>
       </c>
       <c r="AC4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AE4" t="s">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="AF4" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3867,7 +4155,7 @@
         <v>449</v>
       </c>
       <c r="J5" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="K5" t="s">
         <v>346</v>
@@ -3900,24 +4188,21 @@
         <v>351</v>
       </c>
       <c r="AA5" t="s">
-        <v>622</v>
+        <v>564</v>
       </c>
       <c r="AB5" t="s">
-        <v>564</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="s">
-        <v>170</v>
+        <v>581</v>
       </c>
       <c r="AD5" t="s">
-        <v>581</v>
+        <v>181</v>
       </c>
       <c r="AE5" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="AF5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3944,7 +4229,7 @@
         <v>437</v>
       </c>
       <c r="J6" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="K6" t="s">
         <v>586</v>
@@ -3974,24 +4259,21 @@
         <v>353</v>
       </c>
       <c r="AA6" t="s">
-        <v>623</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>434</v>
       </c>
       <c r="AC6" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AE6" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="AF6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4011,6 +4293,9 @@
       <c r="I7" t="s">
         <v>436</v>
       </c>
+      <c r="J7" t="s">
+        <v>568</v>
+      </c>
       <c r="K7" t="s">
         <v>343</v>
       </c>
@@ -4039,24 +4324,21 @@
         <v>352</v>
       </c>
       <c r="AA7" t="s">
-        <v>624</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="AC7" t="s">
-        <v>435</v>
+        <v>176</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE7" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="AF7" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG7" t="s">
         <v>545</v>
       </c>
     </row>
@@ -4104,24 +4386,21 @@
         <v>354</v>
       </c>
       <c r="AA8" t="s">
-        <v>625</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE8" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
       <c r="AF8" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG8" t="s">
         <v>546</v>
       </c>
     </row>
@@ -4166,18 +4445,15 @@
         <v>355</v>
       </c>
       <c r="AA9" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB9" t="s">
         <v>205</v>
       </c>
+      <c r="AC9" t="s">
+        <v>178</v>
+      </c>
       <c r="AD9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>547</v>
       </c>
     </row>
@@ -4213,18 +4489,15 @@
         <v>397</v>
       </c>
       <c r="AA10" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB10" t="s">
         <v>252</v>
       </c>
+      <c r="AC10" t="s">
+        <v>582</v>
+      </c>
       <c r="AD10" t="s">
-        <v>582</v>
-      </c>
-      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4233,7 +4506,7 @@
         <v>342</v>
       </c>
       <c r="F11" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
       <c r="H11" t="s">
         <v>347</v>
@@ -4257,15 +4530,12 @@
         <v>618</v>
       </c>
       <c r="AA11" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB11" t="s">
         <v>253</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>254</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4274,7 +4544,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>563</v>
       </c>
       <c r="H12" t="s">
         <v>269</v>
@@ -4298,15 +4568,12 @@
         <v>244</v>
       </c>
       <c r="AA12" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4315,7 +4582,7 @@
         <v>328</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="H13" t="s">
         <v>258</v>
@@ -4339,15 +4606,12 @@
         <v>245</v>
       </c>
       <c r="AA13" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB13" t="s">
         <v>321</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4356,7 +4620,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="H14" t="s">
         <v>311</v>
@@ -4377,15 +4641,12 @@
         <v>574</v>
       </c>
       <c r="AA14" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>480</v>
       </c>
     </row>
@@ -4394,7 +4655,7 @@
         <v>525</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>259</v>
@@ -4415,15 +4676,12 @@
         <v>250</v>
       </c>
       <c r="AA15" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB15" t="s">
         <v>594</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>481</v>
       </c>
     </row>
@@ -4432,7 +4690,7 @@
         <v>465</v>
       </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>260</v>
@@ -4453,15 +4711,12 @@
         <v>246</v>
       </c>
       <c r="AA16" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB16" t="s">
         <v>575</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4470,7 +4725,7 @@
         <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H17" t="s">
         <v>312</v>
@@ -4485,15 +4740,12 @@
         <v>247</v>
       </c>
       <c r="AA17" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>455</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4502,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -4517,12 +4769,9 @@
         <v>248</v>
       </c>
       <c r="AA18" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>463</v>
       </c>
     </row>
@@ -4531,7 +4780,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>612</v>
+        <v>406</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -4540,12 +4789,9 @@
         <v>451</v>
       </c>
       <c r="AA19" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB19" t="s">
         <v>490</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4554,7 +4800,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -4563,12 +4809,9 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4577,7 +4820,7 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -4586,12 +4829,9 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4600,7 +4840,7 @@
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>614</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -4609,12 +4849,9 @@
         <v>567</v>
       </c>
       <c r="AA22" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4623,7 +4860,7 @@
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -4632,12 +4869,9 @@
         <v>458</v>
       </c>
       <c r="AA23" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>548</v>
       </c>
     </row>
@@ -4646,7 +4880,7 @@
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -4655,12 +4889,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB24" t="s">
         <v>475</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>549</v>
       </c>
     </row>
@@ -4669,7 +4900,7 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>615</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -4678,12 +4909,9 @@
         <v>383</v>
       </c>
       <c r="AA25" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>550</v>
       </c>
     </row>
@@ -4692,7 +4920,7 @@
         <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -4701,21 +4929,18 @@
         <v>617</v>
       </c>
       <c r="AA26" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB26" t="s">
         <v>555</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>611</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>551</v>
       </c>
       <c r="H27" t="s">
         <v>277</v>
@@ -4724,21 +4949,18 @@
         <v>536</v>
       </c>
       <c r="AA27" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>261</v>
@@ -4747,18 +4969,15 @@
         <v>83</v>
       </c>
       <c r="AA28" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="H29" t="s">
         <v>278</v>
@@ -4767,18 +4986,15 @@
         <v>425</v>
       </c>
       <c r="AA29" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>438</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
@@ -4787,18 +5003,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>438</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -4807,187 +5020,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB31" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>405</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
       <c r="AA32" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
       <c r="F33" t="s">
-        <v>456</v>
+        <v>222</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
       </c>
       <c r="AA33" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H34" t="s">
         <v>521</v>
       </c>
       <c r="AA34" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
       </c>
       <c r="AA35" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="H36" t="s">
         <v>325</v>
       </c>
       <c r="AA36" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB36" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
       </c>
       <c r="AA37" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>256</v>
       </c>
       <c r="AA38" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
         <v>552</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>616</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>616</v>
+      </c>
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4995,7 +5184,7 @@
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5003,7 +5192,7 @@
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5011,7 +5200,7 @@
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5019,7 +5208,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5027,7 +5216,7 @@
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5035,7 +5224,7 @@
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>595</v>
       </c>
     </row>
@@ -5043,7 +5232,7 @@
       <c r="H52" t="s">
         <v>360</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5051,7 +5240,7 @@
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5059,7 +5248,7 @@
       <c r="H54" t="s">
         <v>348</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>544</v>
       </c>
     </row>
@@ -5067,7 +5256,7 @@
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5075,7 +5264,7 @@
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5083,7 +5272,7 @@
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5091,7 +5280,7 @@
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5099,7 +5288,7 @@
       <c r="H59" t="s">
         <v>553</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5107,7 +5296,7 @@
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5115,7 +5304,7 @@
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5123,7 +5312,7 @@
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5131,7 +5320,7 @@
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5139,7 +5328,7 @@
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5147,7 +5336,7 @@
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5155,7 +5344,7 @@
       <c r="H66" t="s">
         <v>361</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5163,7 +5352,7 @@
       <c r="H67" t="s">
         <v>362</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5171,7 +5360,7 @@
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5179,7 +5368,7 @@
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5187,7 +5376,7 @@
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5195,7 +5384,7 @@
       <c r="H71" t="s">
         <v>540</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5203,7 +5392,7 @@
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5211,7 +5400,7 @@
       <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5219,7 +5408,7 @@
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5227,7 +5416,7 @@
       <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5235,7 +5424,7 @@
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5243,7 +5432,7 @@
       <c r="H77" t="s">
         <v>522</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5251,7 +5440,7 @@
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5259,7 +5448,7 @@
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>656</v>
       </c>
     </row>
@@ -5267,7 +5456,7 @@
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5275,7 +5464,7 @@
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5283,7 +5472,7 @@
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5291,7 +5480,7 @@
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5299,7 +5488,7 @@
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5307,7 +5496,7 @@
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5315,7 +5504,7 @@
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5323,7 +5512,7 @@
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5331,7 +5520,7 @@
       <c r="H88" t="s">
         <v>541</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5339,7 +5528,7 @@
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5347,7 +5536,7 @@
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5355,7 +5544,7 @@
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5363,7 +5552,7 @@
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>573</v>
       </c>
     </row>
@@ -5371,7 +5560,7 @@
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5379,7 +5568,7 @@
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5387,7 +5576,7 @@
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5395,7 +5584,7 @@
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5403,7 +5592,7 @@
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>559</v>
       </c>
     </row>
@@ -5411,272 +5600,272 @@
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>663</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="666">
   <si>
     <t>description</t>
   </si>
@@ -2233,7 +2233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="97" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2638,8 +2638,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="76">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2656,6 +2870,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3112,7 +3598,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3347,55 +3833,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="52" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="66" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="69" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -30,12 +30,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="670">
   <si>
     <t>description</t>
   </si>
@@ -2227,13 +2227,25 @@
   <si>
     <t>openFile(filePath)</t>
   </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="97" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2852,8 +2864,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2870,6 +3096,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3598,7 +4096,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3935,55 +4433,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="83" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="86" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="99" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="100" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="103" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4497,7 +5097,7 @@
         <v>472</v>
       </c>
       <c r="Q2" t="s">
-        <v>408</v>
+        <v>667</v>
       </c>
       <c r="R2" t="s">
         <v>421</v>
@@ -4591,6 +5191,9 @@
       <c r="P3" t="s">
         <v>473</v>
       </c>
+      <c r="Q3" t="s">
+        <v>668</v>
+      </c>
       <c r="R3" t="s">
         <v>422</v>
       </c>
@@ -4677,6 +5280,9 @@
       <c r="P4" t="s">
         <v>474</v>
       </c>
+      <c r="Q4" t="s">
+        <v>669</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -4888,7 +5494,7 @@
         <v>343</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>666</v>
       </c>
       <c r="N7" t="s">
         <v>310</v>
@@ -4950,7 +5556,7 @@
         <v>542</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -5009,7 +5615,7 @@
         <v>324</v>
       </c>
       <c r="L9" t="s">
-        <v>517</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -5059,7 +5665,7 @@
         <v>583</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -5103,7 +5709,7 @@
         <v>584</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>459</v>
@@ -5141,7 +5747,7 @@
         <v>441</v>
       </c>
       <c r="L12" t="s">
-        <v>518</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>543</v>
@@ -5179,7 +5785,7 @@
         <v>317</v>
       </c>
       <c r="L13" t="s">
-        <v>381</v>
+        <v>518</v>
       </c>
       <c r="N13" t="s">
         <v>427</v>
@@ -5217,7 +5823,7 @@
         <v>318</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="N14" t="s">
         <v>460</v>
@@ -5252,7 +5858,7 @@
         <v>319</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5287,7 +5893,7 @@
         <v>320</v>
       </c>
       <c r="L16" t="s">
-        <v>519</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>554</v>
@@ -5319,7 +5925,7 @@
         <v>312</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5348,7 +5954,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5374,7 +5980,7 @@
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s">
         <v>490</v>
@@ -5394,7 +6000,7 @@
         <v>291</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="AA20" t="s">
         <v>102</v>
@@ -5414,7 +6020,7 @@
         <v>292</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>
@@ -5434,7 +6040,7 @@
         <v>293</v>
       </c>
       <c r="L22" t="s">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
         <v>104</v>
@@ -5454,7 +6060,7 @@
         <v>294</v>
       </c>
       <c r="L23" t="s">
-        <v>458</v>
+        <v>567</v>
       </c>
       <c r="AA23" t="s">
         <v>105</v>
@@ -5474,7 +6080,7 @@
         <v>285</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>458</v>
       </c>
       <c r="AA24" t="s">
         <v>475</v>
@@ -5494,7 +6100,7 @@
         <v>274</v>
       </c>
       <c r="L25" t="s">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>106</v>
@@ -5514,7 +6120,7 @@
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>617</v>
+        <v>383</v>
       </c>
       <c r="AA26" t="s">
         <v>555</v>
@@ -5534,7 +6140,7 @@
         <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
       <c r="AA27" t="s">
         <v>107</v>
@@ -5554,7 +6160,7 @@
         <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>536</v>
       </c>
       <c r="AA28" t="s">
         <v>108</v>
@@ -5571,7 +6177,7 @@
         <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s">
         <v>109</v>
@@ -5588,7 +6194,7 @@
         <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AA30" t="s">
         <v>110</v>
@@ -5605,7 +6211,7 @@
         <v>212</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>322</v>
@@ -5620,6 +6226,9 @@
       </c>
       <c r="H32" t="s">
         <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>111</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -35,12 +35,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5639" uniqueCount="676">
   <si>
     <t>description</t>
   </si>
@@ -2239,13 +2239,31 @@
   <si>
     <t>send(profile,var)</t>
   </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="148" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3078,8 +3096,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="172">
+  <fills count="196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3096,6 +3221,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4096,7 +4357,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4535,55 +4796,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="117" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="120" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5097,7 +5409,7 @@
         <v>472</v>
       </c>
       <c r="Q2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="R2" t="s">
         <v>421</v>
@@ -5192,7 +5504,7 @@
         <v>473</v>
       </c>
       <c r="Q3" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="R3" t="s">
         <v>422</v>
@@ -5281,7 +5593,7 @@
         <v>474</v>
       </c>
       <c r="Q4" t="s">
-        <v>669</v>
+        <v>408</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -5363,6 +5675,9 @@
       <c r="O5" t="s">
         <v>537</v>
       </c>
+      <c r="Q5" t="s">
+        <v>672</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -5797,7 +6112,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>245</v>
+        <v>673</v>
       </c>
       <c r="AA13" t="s">
         <v>321</v>
@@ -5832,7 +6147,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>574</v>
+        <v>245</v>
       </c>
       <c r="AA14" t="s">
         <v>100</v>
@@ -5867,7 +6182,7 @@
         <v>488</v>
       </c>
       <c r="S15" t="s">
-        <v>250</v>
+        <v>574</v>
       </c>
       <c r="AA15" t="s">
         <v>594</v>
@@ -5902,7 +6217,7 @@
         <v>489</v>
       </c>
       <c r="S16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA16" t="s">
         <v>575</v>
@@ -5931,7 +6246,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA17" t="s">
         <v>101</v>
@@ -5960,7 +6275,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA18" t="s">
         <v>73</v>
@@ -5982,6 +6297,9 @@
       <c r="L19" t="s">
         <v>80</v>
       </c>
+      <c r="S19" t="s">
+        <v>674</v>
+      </c>
       <c r="AA19" t="s">
         <v>490</v>
       </c>
@@ -6002,6 +6320,9 @@
       <c r="L20" t="s">
         <v>451</v>
       </c>
+      <c r="S20" t="s">
+        <v>248</v>
+      </c>
       <c r="AA20" t="s">
         <v>102</v>
       </c>
@@ -6021,6 +6342,9 @@
       </c>
       <c r="L21" t="s">
         <v>81</v>
+      </c>
+      <c r="S21" t="s">
+        <v>675</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -22,12 +22,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -48,15 +48,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5639" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6282" uniqueCount="713">
   <si>
     <t>description</t>
   </si>
@@ -2257,13 +2259,124 @@
   <si>
     <t>split(pdf,saveTo)</t>
   </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="148" x14ac:knownFonts="1">
+  <fonts count="165" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3203,8 +3316,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="196">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3221,6 +3441,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4357,7 +4713,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="191">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4896,6 +5252,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="147" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5250,7 +5657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5350,12 +5757,18 @@
         <v>54</v>
       </c>
       <c r="AD1" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>677</v>
+      </c>
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>405</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5448,12 +5861,18 @@
         <v>172</v>
       </c>
       <c r="AD2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>705</v>
+      </c>
+      <c r="AF2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>423</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>479</v>
       </c>
     </row>
@@ -5540,12 +5959,18 @@
         <v>173</v>
       </c>
       <c r="AD3" t="s">
+        <v>703</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>706</v>
+      </c>
+      <c r="AF3" t="s">
         <v>356</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5629,12 +6054,18 @@
         <v>174</v>
       </c>
       <c r="AD4" t="s">
+        <v>704</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>707</v>
+      </c>
+      <c r="AF4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>415</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5705,13 +6136,16 @@
       <c r="AC5" t="s">
         <v>581</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>708</v>
+      </c>
+      <c r="AF5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>416</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5776,13 +6210,16 @@
       <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>417</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5841,13 +6278,16 @@
       <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>710</v>
+      </c>
+      <c r="AF7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>418</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>545</v>
       </c>
     </row>
@@ -5865,7 +6305,7 @@
         <v>358</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>698</v>
       </c>
       <c r="K8" t="s">
         <v>542</v>
@@ -5903,13 +6343,16 @@
       <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>419</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>546</v>
       </c>
     </row>
@@ -5927,7 +6370,7 @@
         <v>359</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -5959,10 +6402,13 @@
       <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>712</v>
+      </c>
+      <c r="AF9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>547</v>
       </c>
     </row>
@@ -5977,7 +6423,7 @@
         <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>583</v>
+        <v>324</v>
       </c>
       <c r="L10" t="s">
         <v>517</v>
@@ -6003,10 +6449,10 @@
       <c r="AC10" t="s">
         <v>582</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6021,7 +6467,7 @@
         <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L11" t="s">
         <v>78</v>
@@ -6041,10 +6487,10 @@
       <c r="AA11" t="s">
         <v>253</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6059,7 +6505,7 @@
         <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>441</v>
+        <v>584</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -6079,10 +6525,10 @@
       <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6097,7 +6543,7 @@
         <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="L13" t="s">
         <v>518</v>
@@ -6117,10 +6563,10 @@
       <c r="AA13" t="s">
         <v>321</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6135,7 +6581,7 @@
         <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L14" t="s">
         <v>381</v>
@@ -6152,10 +6598,10 @@
       <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6170,7 +6616,7 @@
         <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -6187,10 +6633,10 @@
       <c r="AA15" t="s">
         <v>594</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>481</v>
       </c>
     </row>
@@ -6205,7 +6651,7 @@
         <v>260</v>
       </c>
       <c r="I16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -6222,10 +6668,10 @@
       <c r="AA16" t="s">
         <v>575</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6239,6 +6685,9 @@
       <c r="H17" t="s">
         <v>312</v>
       </c>
+      <c r="I17" t="s">
+        <v>320</v>
+      </c>
       <c r="L17" t="s">
         <v>519</v>
       </c>
@@ -6251,10 +6700,10 @@
       <c r="AA17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>455</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -6268,6 +6717,9 @@
       <c r="H18" t="s">
         <v>87</v>
       </c>
+      <c r="I18" t="s">
+        <v>699</v>
+      </c>
       <c r="L18" t="s">
         <v>79</v>
       </c>
@@ -6280,7 +6732,7 @@
       <c r="AA18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>463</v>
       </c>
     </row>
@@ -6289,7 +6741,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>406</v>
+        <v>678</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -6303,7 +6755,7 @@
       <c r="AA19" t="s">
         <v>490</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6312,7 +6764,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -6326,7 +6778,7 @@
       <c r="AA20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6335,7 +6787,7 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>613</v>
+        <v>406</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -6349,7 +6801,7 @@
       <c r="AA21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6358,7 +6810,7 @@
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -6369,7 +6821,7 @@
       <c r="AA22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6378,7 +6830,7 @@
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>613</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -6389,7 +6841,7 @@
       <c r="AA23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>548</v>
       </c>
     </row>
@@ -6398,7 +6850,7 @@
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>614</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -6409,7 +6861,7 @@
       <c r="AA24" t="s">
         <v>475</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6418,7 +6870,7 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -6429,7 +6881,7 @@
       <c r="AA25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>550</v>
       </c>
     </row>
@@ -6438,18 +6890,18 @@
         <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>615</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>680</v>
       </c>
       <c r="L26" t="s">
         <v>383</v>
       </c>
       <c r="AA26" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>700</v>
+      </c>
+      <c r="AH26" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6458,18 +6910,18 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>551</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>681</v>
       </c>
       <c r="L27" t="s">
         <v>617</v>
       </c>
       <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH27" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6478,16 +6930,16 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>615</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
         <v>536</v>
       </c>
       <c r="AA28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -6495,898 +6947,959 @@
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>316</v>
+        <v>551</v>
       </c>
       <c r="H29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
         <v>83</v>
       </c>
       <c r="AA29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>676</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
         <v>425</v>
       </c>
       <c r="AA30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>677</v>
       </c>
       <c r="F31" t="s">
-        <v>438</v>
+        <v>316</v>
       </c>
       <c r="H31" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>322</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>405</v>
+      </c>
+      <c r="F33" t="s">
+        <v>438</v>
+      </c>
+      <c r="H33" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA34" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>456</v>
-      </c>
-      <c r="H34" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>457</v>
+        <v>222</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="AA35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="H36" t="s">
-        <v>325</v>
+        <v>521</v>
       </c>
       <c r="AA36" t="s">
-        <v>556</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>62</v>
+        <v>457</v>
       </c>
       <c r="H37" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="AA37" t="s">
-        <v>115</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>63</v>
+        <v>407</v>
       </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AA38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AA39" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AA40" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AA41" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="AA42" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>552</v>
+        <v>682</v>
       </c>
       <c r="AA43" t="s">
-        <v>565</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s">
-        <v>384</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>616</v>
       </c>
-      <c r="H45" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA47" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="AA48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="AA49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AA50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AA51" t="s">
-        <v>595</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="AA52" t="s">
-        <v>209</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="AA53" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>348</v>
+        <v>683</v>
       </c>
       <c r="AA54" t="s">
-        <v>544</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>326</v>
+        <v>684</v>
       </c>
       <c r="AA55" t="s">
-        <v>124</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>263</v>
+        <v>685</v>
       </c>
       <c r="AA56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>287</v>
+        <v>686</v>
       </c>
       <c r="AA57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="AA58" t="s">
-        <v>476</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>553</v>
+        <v>360</v>
       </c>
       <c r="AA59" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AA60" t="s">
-        <v>127</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="AA61" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="AA62" t="s">
-        <v>453</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="AA63" t="s">
-        <v>128</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="AA64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>305</v>
+        <v>553</v>
       </c>
       <c r="AA65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="AA66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>362</v>
+        <v>687</v>
       </c>
       <c r="AA67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>340</v>
+        <v>688</v>
       </c>
       <c r="AA68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>308</v>
+        <v>689</v>
       </c>
       <c r="AA69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="AA70" t="s">
-        <v>430</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>540</v>
+        <v>690</v>
       </c>
       <c r="AA71" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>309</v>
+        <v>691</v>
       </c>
       <c r="AA72" t="s">
-        <v>210</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="AA73" t="s">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AA74" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="AA75" t="s">
-        <v>135</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="AA76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>522</v>
+        <v>362</v>
       </c>
       <c r="AA77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AA79" t="s">
-        <v>656</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AA80" t="s">
-        <v>193</v>
+        <v>656</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>286</v>
+        <v>540</v>
       </c>
       <c r="AA81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>420</v>
+        <v>309</v>
       </c>
       <c r="AA82" t="s">
-        <v>442</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="AA83" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>265</v>
+        <v>692</v>
       </c>
       <c r="AA84" t="s">
-        <v>139</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>276</v>
+        <v>693</v>
       </c>
       <c r="AA85" t="s">
-        <v>140</v>
+        <v>701</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="AA86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>271</v>
+        <v>522</v>
       </c>
       <c r="AA87" t="s">
-        <v>484</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>541</v>
+        <v>339</v>
       </c>
       <c r="AA88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AA89" t="s">
-        <v>143</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>283</v>
+        <v>694</v>
       </c>
       <c r="AA90" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>267</v>
+        <v>695</v>
       </c>
       <c r="AA91" t="s">
-        <v>477</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="AA92" t="s">
-        <v>573</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="AA93" t="s">
-        <v>196</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="AA94" t="s">
-        <v>443</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="AA95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="AA96" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AA97" t="s">
-        <v>559</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>273</v>
       </c>
-      <c r="AA98" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>657</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>658</v>
+        <v>520</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>523</v>
+        <v>657</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>145</v>
+        <v>658</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>374</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>146</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>147</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>577</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>149</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>578</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>151</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>579</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>157</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>596</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>557</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>161</v>
+        <v>557</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>659</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>580</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>164</v>
+        <v>659</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>165</v>
+        <v>580</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>660</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>661</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>663</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_xml.xlsx
@@ -23,42 +23,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6282" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7063" uniqueCount="799">
   <si>
     <t>description</t>
   </si>
@@ -2370,13 +2373,271 @@
   <si>
     <t>removeProtection(file)</t>
   </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="165" x14ac:knownFonts="1">
+  <fonts count="182" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3423,8 +3684,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="244">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3441,6 +3809,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4713,7 +5217,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="208">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5203,106 +5707,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="137" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="154" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5657,7 +6212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5688,87 +6243,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>342</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>714</v>
+      </c>
+      <c r="O1" t="s">
         <v>328</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>525</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>465</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>192</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>715</v>
+      </c>
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>235</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>387</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>403</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>404</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>349</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>388</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>587</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>676</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>677</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>405</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5792,87 +6359,99 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>716</v>
+      </c>
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>439</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>665</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>585</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>310</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>378</v>
+      </c>
+      <c r="O2" t="s">
         <v>375</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>426</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>526</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>472</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>670</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>738</v>
+      </c>
+      <c r="U2" t="s">
         <v>421</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>249</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>589</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>389</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>410</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>411</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>372</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>398</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>591</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
-        <v>702</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>794</v>
+      </c>
+      <c r="AI2" t="s">
         <v>705</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>179</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>479</v>
       </c>
     </row>
@@ -5893,84 +6472,96 @@
         <v>447</v>
       </c>
       <c r="G3" t="s">
+        <v>717</v>
+      </c>
+      <c r="H3" t="s">
         <v>357</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>77</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>344</v>
       </c>
-      <c r="L3" t="s">
-        <v>336</v>
-      </c>
       <c r="M3" t="s">
+        <v>724</v>
+      </c>
+      <c r="N3" t="s">
+        <v>725</v>
+      </c>
+      <c r="O3" t="s">
         <v>329</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>84</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>527</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>473</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>671</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>739</v>
+      </c>
+      <c r="U3" t="s">
         <v>422</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>236</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>590</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>390</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>412</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>373</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>399</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>592</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
-        <v>703</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>795</v>
+      </c>
+      <c r="AI3" t="s">
         <v>706</v>
       </c>
-      <c r="AF3" t="s">
-        <v>356</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>796</v>
+      </c>
+      <c r="AK3" t="s">
         <v>180</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5988,84 +6579,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>718</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>378</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>440</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>470</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>345</v>
       </c>
-      <c r="L4" t="s">
-        <v>569</v>
-      </c>
       <c r="M4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N4" t="s">
+        <v>379</v>
+      </c>
+      <c r="O4" t="s">
         <v>330</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>528</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>474</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>408</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>740</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>237</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>213</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>391</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>413</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>350</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>400</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>593</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE4" t="s">
         <v>570</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
-        <v>704</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AI4" t="s">
         <v>707</v>
       </c>
-      <c r="AF4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK4" t="s">
         <v>415</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6083,69 +6686,84 @@
         <v>448</v>
       </c>
       <c r="G5" t="s">
+        <v>719</v>
+      </c>
+      <c r="H5" t="s">
         <v>424</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>558</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>449</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>471</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>346</v>
       </c>
-      <c r="L5" t="s">
-        <v>234</v>
+      <c r="M5" t="s">
+        <v>569</v>
       </c>
       <c r="N5" t="s">
+        <v>726</v>
+      </c>
+      <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>537</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>672</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>594</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>238</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>214</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>392</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>414</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>351</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE5" t="s">
         <v>564</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>581</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>703</v>
+      </c>
+      <c r="AI5" t="s">
         <v>708</v>
       </c>
-      <c r="AF5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK5" t="s">
         <v>416</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6163,69 +6781,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>720</v>
+      </c>
+      <c r="H6" t="s">
         <v>516</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>331</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>437</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>539</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>586</v>
       </c>
-      <c r="L6" t="s">
-        <v>450</v>
+      <c r="M6" t="s">
+        <v>234</v>
       </c>
       <c r="N6" t="s">
+        <v>727</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>532</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>575</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>239</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>215</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>393</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>353</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>434</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>175</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>704</v>
+      </c>
+      <c r="AI6" t="s">
         <v>709</v>
       </c>
-      <c r="AF6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK6" t="s">
         <v>417</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>713</v>
       </c>
       <c r="B7" t="s">
         <v>369</v>
@@ -6233,67 +6866,79 @@
       <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>721</v>
+      </c>
+      <c r="I7" t="s">
         <v>379</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>436</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>568</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>343</v>
       </c>
-      <c r="L7" t="s">
-        <v>666</v>
+      <c r="M7" t="s">
+        <v>450</v>
       </c>
       <c r="N7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P7" t="s">
         <v>310</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>533</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>240</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>216</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>394</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>352</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>435</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>176</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>710</v>
       </c>
-      <c r="AF7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>797</v>
+      </c>
+      <c r="AK7" t="s">
         <v>418</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>370</v>
@@ -6301,64 +6946,73 @@
       <c r="F8" t="s">
         <v>313</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>358</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>698</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>542</v>
       </c>
-      <c r="L8" t="s">
-        <v>70</v>
+      <c r="M8" t="s">
+        <v>666</v>
       </c>
       <c r="N8" t="s">
+        <v>728</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>534</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>741</v>
+      </c>
+      <c r="U8" t="s">
         <v>89</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>382</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>395</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>354</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>177</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>711</v>
       </c>
-      <c r="AF8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK8" t="s">
         <v>419</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>371</v>
@@ -6366,1541 +7020,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>359</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>323</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>70</v>
       </c>
       <c r="N9" t="s">
+        <v>729</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>538</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s">
         <v>90</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>409</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>396</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>355</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>712</v>
       </c>
-      <c r="AF9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL9" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>310</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>301</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>324</v>
       </c>
-      <c r="L10" t="s">
-        <v>517</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>730</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>529</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>742</v>
+      </c>
+      <c r="U10" t="s">
         <v>428</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>243</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>397</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE10" t="s">
         <v>252</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>582</v>
       </c>
-      <c r="AF10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>664</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>347</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>583</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
+      <c r="M11" t="s">
+        <v>517</v>
       </c>
       <c r="N11" t="s">
+        <v>731</v>
+      </c>
+      <c r="P11" t="s">
         <v>459</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>530</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>490</v>
+      </c>
+      <c r="U11" t="s">
         <v>91</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>618</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE11" t="s">
         <v>253</v>
       </c>
-      <c r="AF11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="F12" t="s">
         <v>563</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>269</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>584</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
       <c r="N12" t="s">
+        <v>732</v>
+      </c>
+      <c r="P12" t="s">
         <v>543</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>588</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>743</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>244</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE12" t="s">
         <v>99</v>
       </c>
-      <c r="AF12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>314</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>258</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>441</v>
       </c>
-      <c r="L13" t="s">
-        <v>518</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>733</v>
+      </c>
+      <c r="P13" t="s">
         <v>427</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>531</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>744</v>
+      </c>
+      <c r="U13" t="s">
         <v>92</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>673</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE13" t="s">
         <v>321</v>
       </c>
-      <c r="AF13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL13" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>714</v>
       </c>
       <c r="F14" t="s">
         <v>336</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>311</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>317</v>
       </c>
-      <c r="L14" t="s">
-        <v>381</v>
+      <c r="M14" t="s">
+        <v>518</v>
       </c>
       <c r="N14" t="s">
+        <v>734</v>
+      </c>
+      <c r="P14" t="s">
         <v>460</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>745</v>
+      </c>
+      <c r="U14" t="s">
         <v>93</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>245</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE14" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>798</v>
+      </c>
+      <c r="AL14" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>525</v>
+        <v>328</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>259</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>318</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>381</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>735</v>
+      </c>
+      <c r="P15" t="s">
+        <v>737</v>
+      </c>
+      <c r="T15" t="s">
+        <v>746</v>
+      </c>
+      <c r="U15" t="s">
         <v>488</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>574</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE15" t="s">
         <v>594</v>
       </c>
-      <c r="AF15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL15" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>260</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>319</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>554</v>
-      </c>
-      <c r="R16" t="s">
+        <v>736</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>747</v>
+      </c>
+      <c r="U16" t="s">
         <v>489</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>250</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE16" t="s">
         <v>575</v>
       </c>
-      <c r="AF16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL16" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>525</v>
       </c>
       <c r="F17" t="s">
         <v>376</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>312</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>320</v>
       </c>
-      <c r="L17" t="s">
-        <v>519</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>554</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
         <v>246</v>
       </c>
-      <c r="AA17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>455</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>783</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL17" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>465</v>
       </c>
       <c r="F18" t="s">
         <v>377</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>87</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>699</v>
       </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>519</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>748</v>
+      </c>
+      <c r="V18" t="s">
         <v>247</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE18" t="s">
         <v>73</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL18" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
         <v>678</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="L19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>749</v>
+      </c>
+      <c r="V19" t="s">
         <v>674</v>
       </c>
-      <c r="AA19" t="s">
-        <v>490</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>784</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL19" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>715</v>
       </c>
       <c r="F20" t="s">
         <v>679</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>291</v>
       </c>
-      <c r="L20" t="s">
-        <v>451</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>750</v>
+      </c>
+      <c r="V20" t="s">
         <v>248</v>
       </c>
-      <c r="AA20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>455</v>
+      </c>
+      <c r="AL20" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>406</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>292</v>
       </c>
-      <c r="L21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>451</v>
+      </c>
+      <c r="T21" t="s">
+        <v>751</v>
+      </c>
+      <c r="V21" t="s">
         <v>675</v>
       </c>
-      <c r="AA21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>785</v>
+      </c>
+      <c r="AL21" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>403</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
         <v>612</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>293</v>
       </c>
-      <c r="L22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s">
+        <v>752</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>404</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>613</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>294</v>
       </c>
-      <c r="L23" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL23" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="F24" t="s">
         <v>614</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>285</v>
       </c>
-      <c r="L24" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>475</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>567</v>
+      </c>
+      <c r="T24" t="s">
+        <v>754</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL24" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>274</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>458</v>
+      </c>
+      <c r="T25" t="s">
+        <v>755</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL25" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>404</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>680</v>
       </c>
-      <c r="L26" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>700</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>756</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>475</v>
+      </c>
+      <c r="AL26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="F27" t="s">
         <v>251</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>681</v>
       </c>
-      <c r="L27" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>555</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>383</v>
+      </c>
+      <c r="T27" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>388</v>
       </c>
       <c r="F28" t="s">
         <v>615</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>74</v>
       </c>
-      <c r="L28" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>107</v>
+      <c r="M28" t="s">
+        <v>617</v>
+      </c>
+      <c r="T28" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>587</v>
       </c>
       <c r="F29" t="s">
         <v>551</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>277</v>
       </c>
-      <c r="L29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>108</v>
+      <c r="M29" t="s">
+        <v>536</v>
+      </c>
+      <c r="T29" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>676</v>
+        <v>611</v>
       </c>
       <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>261</v>
       </c>
-      <c r="L30" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>109</v>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+      <c r="T30" t="s">
+        <v>760</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>646</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>677</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
         <v>316</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>278</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>110</v>
+      <c r="M31" t="s">
+        <v>425</v>
+      </c>
+      <c r="T31" t="s">
+        <v>761</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>647</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>279</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>322</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>762</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>405</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>438</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>212</v>
       </c>
-      <c r="AA33" t="s">
-        <v>111</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>763</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>676</v>
       </c>
       <c r="F34" t="s">
         <v>221</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>270</v>
       </c>
-      <c r="AA34" t="s">
-        <v>112</v>
+      <c r="T34" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>677</v>
+      </c>
       <c r="F35" t="s">
         <v>222</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>280</v>
       </c>
-      <c r="AA35" t="s">
-        <v>113</v>
+      <c r="T35" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
       <c r="F36" t="s">
         <v>456</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>521</v>
       </c>
-      <c r="AA36" t="s">
-        <v>114</v>
+      <c r="T36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>405</v>
+      </c>
       <c r="F37" t="s">
         <v>457</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>255</v>
       </c>
-      <c r="AA37" t="s">
-        <v>556</v>
+      <c r="T37" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
       <c r="F38" t="s">
         <v>407</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>325</v>
       </c>
-      <c r="AA38" t="s">
-        <v>115</v>
+      <c r="T38" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>302</v>
       </c>
-      <c r="AA39" t="s">
-        <v>116</v>
+      <c r="T39" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>654</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>63</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>256</v>
       </c>
-      <c r="AA40" t="s">
-        <v>206</v>
+      <c r="T40" t="s">
+        <v>766</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>303</v>
       </c>
-      <c r="AA41" t="s">
-        <v>117</v>
+      <c r="T41" t="s">
+        <v>767</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>262</v>
       </c>
-      <c r="AA42" t="s">
-        <v>333</v>
+      <c r="T42" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>66</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>682</v>
       </c>
-      <c r="AA43" t="s">
-        <v>429</v>
+      <c r="T43" t="s">
+        <v>769</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>67</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>76</v>
       </c>
-      <c r="AA44" t="s">
-        <v>565</v>
+      <c r="T44" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>68</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>208</v>
       </c>
-      <c r="AA45" t="s">
-        <v>384</v>
+      <c r="T45" t="s">
+        <v>771</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>69</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>552</v>
       </c>
-      <c r="AA46" t="s">
-        <v>118</v>
+      <c r="T46" t="s">
+        <v>772</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>616</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>284</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>295</v>
+      </c>
+      <c r="T48" t="s">
+        <v>774</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>296</v>
+      </c>
+      <c r="T49" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>338</v>
+      </c>
+      <c r="T50" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>337</v>
+      </c>
+      <c r="T51" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE51" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>685</v>
+      </c>
+      <c r="AE56" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>686</v>
+      </c>
+      <c r="AE57" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>683</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>684</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE59" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>685</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>686</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>722</v>
+      </c>
+      <c r="AE61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>723</v>
+      </c>
+      <c r="AE62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE64" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE65" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE67" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE68" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>687</v>
+      </c>
+      <c r="AE69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>553</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE71" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>687</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>688</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>690</v>
+      </c>
+      <c r="AE73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>689</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE75" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE76" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>691</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE77" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE78" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE79" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE80" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE81" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE84" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE85" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE86" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>693</v>
+      </c>
+      <c r="AE87" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE88" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>692</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE89" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>693</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE90" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE91" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>522</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE92" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE94" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>694</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>420</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE98" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE99" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE100" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE102" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE103" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE104" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>697</v>
+      </c>
+      <c r="AE105" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE106" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE107" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE108" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE109" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE110" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE111" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE112" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE113" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>663</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
